--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>1.342051844184908</v>
       </c>
       <c r="C2">
-        <v>0.2597954371588997</v>
+        <v>0.2597954371593829</v>
       </c>
       <c r="D2">
-        <v>0.3467987371551686</v>
+        <v>0.3467987371550407</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.56953129042634</v>
+        <v>6.569531290426312</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.347834611393246</v>
+        <v>0.3478346113932105</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.146531829389204</v>
+        <v>1.146531829389176</v>
       </c>
       <c r="C3">
-        <v>0.2226636120892351</v>
+        <v>0.222663612089832</v>
       </c>
       <c r="D3">
-        <v>0.3060186634126296</v>
+        <v>0.3060186634128002</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2967523927832829</v>
+        <v>0.2967523927832971</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.366877710887749</v>
+        <v>2.366877710887735</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.029637643210265</v>
       </c>
       <c r="C4">
-        <v>0.2004953635362483</v>
+        <v>0.2004953635360636</v>
       </c>
       <c r="D4">
-        <v>0.2816061815082378</v>
+        <v>0.2816061815085931</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.249885538415754</v>
+        <v>5.249885538415924</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2662214688706825</v>
+        <v>0.2662214688706968</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9826765243585101</v>
+        <v>0.9826765243586522</v>
       </c>
       <c r="C5">
-        <v>0.1915922624045407</v>
+        <v>0.1915922624046971</v>
       </c>
       <c r="D5">
-        <v>0.2717871086602486</v>
+        <v>0.2717871086601207</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.051090236173224</v>
+        <v>5.051090236173337</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2539567962133731</v>
+        <v>0.2539567962133589</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9749161539898523</v>
+        <v>0.9749161539898807</v>
       </c>
       <c r="C6">
         <v>0.1901210426072169</v>
       </c>
       <c r="D6">
-        <v>0.2701637009851368</v>
+        <v>0.270163700984881</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2519300563276587</v>
+        <v>0.2519300563276659</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.998442008380565</v>
+        <v>1.998442008380579</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029001727150757</v>
+        <v>1.029001727150842</v>
       </c>
       <c r="C7">
-        <v>0.2003747988739377</v>
+        <v>0.2003747988738382</v>
       </c>
       <c r="D7">
-        <v>0.2814732697820261</v>
+        <v>0.2814732697821682</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.247194495222601</v>
+        <v>5.247194495222743</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2660553873733278</v>
+        <v>0.2660553873733136</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.113801030696735</v>
+        <v>2.113801030696749</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.273905142099835</v>
+        <v>1.27390514209992</v>
       </c>
       <c r="C8">
-        <v>0.2468435211900584</v>
+        <v>0.2468435211902573</v>
       </c>
       <c r="D8">
-        <v>0.3325894302857364</v>
+        <v>0.3325894302859638</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.282026372863413</v>
+        <v>6.282026372863299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3300274633500635</v>
+        <v>0.3300274633500706</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.645056120012896</v>
+        <v>2.645056120012924</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>1.785455434637782</v>
       </c>
       <c r="C9">
-        <v>0.3444429816669583</v>
+        <v>0.3444429816673988</v>
       </c>
       <c r="D9">
-        <v>0.439316832031281</v>
+        <v>0.4393168320308689</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.437639580419955</v>
+        <v>8.437639580419869</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.463807395377323</v>
+        <v>0.4638073953772874</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.190783585652952</v>
+        <v>2.190783585652639</v>
       </c>
       <c r="C10">
-        <v>0.4225432915819738</v>
+        <v>0.4225432915815759</v>
       </c>
       <c r="D10">
-        <v>0.5242972824496519</v>
+        <v>0.5242972824499361</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.14501014701528</v>
+        <v>10.14501014701514</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.797500754545197</v>
+        <v>4.797500754545183</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.384538397710429</v>
+        <v>2.384538397710713</v>
       </c>
       <c r="C11">
-        <v>0.4601551349133217</v>
+        <v>0.4601551349129807</v>
       </c>
       <c r="D11">
-        <v>0.5651704775968938</v>
+        <v>0.5651704775967232</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6208848331728944</v>
+        <v>0.6208848331729087</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.295923041686081</v>
+        <v>5.295923041686024</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.459569042902729</v>
+        <v>2.459569042902785</v>
       </c>
       <c r="C12">
-        <v>0.4747705244765825</v>
+        <v>0.4747705244760141</v>
       </c>
       <c r="D12">
-        <v>0.5810559578490313</v>
+        <v>0.581055957848946</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.279520722646</v>
+        <v>11.27952072264623</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6405926419742727</v>
+        <v>0.6405926419743295</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.494244866975151</v>
+        <v>5.494244866975237</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.443330280358111</v>
+        <v>2.443330280357998</v>
       </c>
       <c r="C13">
-        <v>0.4716049347012756</v>
+        <v>0.4716049347002809</v>
       </c>
       <c r="D13">
-        <v>0.5776148894346989</v>
+        <v>0.5776148894349262</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6363266354155925</v>
+        <v>0.6363266354155996</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.451054216619923</v>
+        <v>5.451054216619909</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.390675903575016</v>
+        <v>2.390675903575044</v>
       </c>
       <c r="C14">
-        <v>0.461349610072574</v>
+        <v>0.461349610072233</v>
       </c>
       <c r="D14">
-        <v>0.5664686078888792</v>
+        <v>0.5664686078884813</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.98843750683181</v>
+        <v>10.98843750683176</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6224966319612761</v>
+        <v>0.6224966319612619</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.312028638806353</v>
+        <v>5.31202863880624</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.358650220054926</v>
+        <v>2.358650220054557</v>
       </c>
       <c r="C15">
-        <v>0.455118883630206</v>
+        <v>0.4551188836306324</v>
       </c>
       <c r="D15">
-        <v>0.5596973809475969</v>
+        <v>0.5596973809475116</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.85320212670814</v>
+        <v>10.85320212670831</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6140868062129314</v>
+        <v>0.6140868062129101</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.228212798776568</v>
+        <v>5.228212798776497</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.178334978120688</v>
+        <v>2.178334978121029</v>
       </c>
       <c r="C16">
-        <v>0.4201330927818248</v>
+        <v>0.4201330927827769</v>
       </c>
       <c r="D16">
-        <v>0.5216777469562999</v>
+        <v>0.5216777469556746</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.09252931062963</v>
+        <v>10.09252931062954</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5667636691984441</v>
+        <v>0.5667636691984796</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.070319005280282</v>
+        <v>2.07031900527997</v>
       </c>
       <c r="C17">
-        <v>0.399251427386929</v>
+        <v>0.3992514273864742</v>
       </c>
       <c r="D17">
-        <v>0.4989771522726301</v>
+        <v>0.4989771522729143</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.637317865899149</v>
+        <v>9.637317865899035</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5384369084856928</v>
+        <v>0.5384369084857497</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.496660226998117</v>
+        <v>4.496660226998131</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.009050775765644</v>
+        <v>2.009050775765616</v>
       </c>
       <c r="C18">
-        <v>0.3874318121259392</v>
+        <v>0.3874318121259819</v>
       </c>
       <c r="D18">
-        <v>0.4861223363639624</v>
+        <v>0.4861223363639908</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5223766318751117</v>
+        <v>0.5223766318750904</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.346085093755079</v>
+        <v>4.346085093755093</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.988445602032186</v>
+        <v>1.988445602031788</v>
       </c>
       <c r="C19">
-        <v>0.3834607085032076</v>
+        <v>0.3834607085040176</v>
       </c>
       <c r="D19">
-        <v>0.4818022827494701</v>
+        <v>0.4818022827491575</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.292431794874602</v>
+        <v>9.292431794874773</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5169765195193321</v>
+        <v>0.5169765195193747</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.295796819764107</v>
+        <v>4.295796819764092</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.081726463448888</v>
+        <v>2.081726463448859</v>
       </c>
       <c r="C20">
-        <v>0.4014540713507841</v>
+        <v>0.4014540713512531</v>
       </c>
       <c r="D20">
-        <v>0.5013722007125523</v>
+        <v>0.5013722007125807</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.685380140059294</v>
+        <v>9.685380140059266</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5414277136222552</v>
+        <v>0.5414277136222481</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.524872185109203</v>
+        <v>4.524872185109132</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.406093877034749</v>
+        <v>2.406093877034323</v>
       </c>
       <c r="C21">
         <v>0.4643510751886026</v>
       </c>
       <c r="D21">
-        <v>0.5697306315210824</v>
+        <v>0.5697306315213098</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.05356014697492</v>
+        <v>11.05356014697486</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6265458527216765</v>
+        <v>0.6265458527216481</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.352578125455366</v>
+        <v>5.352578125455338</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.627962797831458</v>
+        <v>2.627962797831287</v>
       </c>
       <c r="C22">
-        <v>0.5076758381679838</v>
+        <v>0.5076758381675859</v>
       </c>
       <c r="D22">
-        <v>0.6168466162570496</v>
+        <v>0.6168466162574759</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.99216168090032</v>
+        <v>11.99216168090027</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6848525747238483</v>
+        <v>0.6848525747238767</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.951464061028673</v>
+        <v>5.951464061028659</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>2.508520533139517</v>
       </c>
       <c r="C23">
-        <v>0.484321200441201</v>
+        <v>0.4843212004410873</v>
       </c>
       <c r="D23">
-        <v>0.5914395145116202</v>
+        <v>0.5914395145118192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.48650129047451</v>
+        <v>11.48650129047456</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6534547140279656</v>
+        <v>0.653454714027994</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.625369159339442</v>
+        <v>5.625369159339371</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.076566584022714</v>
+        <v>2.076566584022743</v>
       </c>
       <c r="C24">
-        <v>0.4004576834207825</v>
+        <v>0.4004576834202567</v>
       </c>
       <c r="D24">
-        <v>0.5002887949742671</v>
+        <v>0.5002887949744093</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.66364005534308</v>
+        <v>9.663640055343194</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.540074875502448</v>
+        <v>0.5400748755023699</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.512104237749043</v>
+        <v>4.512104237748986</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.642749202286126</v>
+        <v>1.642749202286325</v>
       </c>
       <c r="C25">
-        <v>0.3171192501294229</v>
+        <v>0.3171192501302329</v>
       </c>
       <c r="D25">
-        <v>0.4095118435448484</v>
+        <v>0.40951184354482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.836707678552898</v>
+        <v>7.836707678553012</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4264590863729367</v>
+        <v>0.4264590863729723</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.476202697236602</v>
+        <v>3.476202697236673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>1.342051844184908</v>
       </c>
       <c r="C2">
-        <v>0.2597954371593829</v>
+        <v>0.2597954371588997</v>
       </c>
       <c r="D2">
-        <v>0.3467987371550407</v>
+        <v>0.3467987371551686</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.569531290426312</v>
+        <v>6.56953129042634</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3478346113932105</v>
+        <v>0.347834611393246</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.146531829389176</v>
+        <v>1.146531829389204</v>
       </c>
       <c r="C3">
-        <v>0.222663612089832</v>
+        <v>0.2226636120892351</v>
       </c>
       <c r="D3">
-        <v>0.3060186634128002</v>
+        <v>0.3060186634126296</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2967523927832971</v>
+        <v>0.2967523927832829</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.366877710887735</v>
+        <v>2.366877710887749</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.029637643210265</v>
       </c>
       <c r="C4">
-        <v>0.2004953635360636</v>
+        <v>0.2004953635362483</v>
       </c>
       <c r="D4">
-        <v>0.2816061815085931</v>
+        <v>0.2816061815082378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.249885538415924</v>
+        <v>5.249885538415754</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2662214688706968</v>
+        <v>0.2662214688706825</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9826765243586522</v>
+        <v>0.9826765243585101</v>
       </c>
       <c r="C5">
-        <v>0.1915922624046971</v>
+        <v>0.1915922624045407</v>
       </c>
       <c r="D5">
-        <v>0.2717871086601207</v>
+        <v>0.2717871086602486</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.051090236173337</v>
+        <v>5.051090236173224</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2539567962133589</v>
+        <v>0.2539567962133731</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9749161539898807</v>
+        <v>0.9749161539898523</v>
       </c>
       <c r="C6">
         <v>0.1901210426072169</v>
       </c>
       <c r="D6">
-        <v>0.270163700984881</v>
+        <v>0.2701637009851368</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2519300563276659</v>
+        <v>0.2519300563276587</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.998442008380579</v>
+        <v>1.998442008380565</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029001727150842</v>
+        <v>1.029001727150757</v>
       </c>
       <c r="C7">
-        <v>0.2003747988738382</v>
+        <v>0.2003747988739377</v>
       </c>
       <c r="D7">
-        <v>0.2814732697821682</v>
+        <v>0.2814732697820261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.247194495222743</v>
+        <v>5.247194495222601</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2660553873733136</v>
+        <v>0.2660553873733278</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.113801030696749</v>
+        <v>2.113801030696735</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.27390514209992</v>
+        <v>1.273905142099835</v>
       </c>
       <c r="C8">
-        <v>0.2468435211902573</v>
+        <v>0.2468435211900584</v>
       </c>
       <c r="D8">
-        <v>0.3325894302859638</v>
+        <v>0.3325894302857364</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.282026372863299</v>
+        <v>6.282026372863413</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3300274633500706</v>
+        <v>0.3300274633500635</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.645056120012924</v>
+        <v>2.645056120012896</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>1.785455434637782</v>
       </c>
       <c r="C9">
-        <v>0.3444429816673988</v>
+        <v>0.3444429816669583</v>
       </c>
       <c r="D9">
-        <v>0.4393168320308689</v>
+        <v>0.439316832031281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.437639580419869</v>
+        <v>8.437639580419955</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4638073953772874</v>
+        <v>0.463807395377323</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.190783585652639</v>
+        <v>2.190783585652952</v>
       </c>
       <c r="C10">
-        <v>0.4225432915815759</v>
+        <v>0.4225432915819738</v>
       </c>
       <c r="D10">
-        <v>0.5242972824499361</v>
+        <v>0.5242972824496519</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.14501014701514</v>
+        <v>10.14501014701528</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.797500754545183</v>
+        <v>4.797500754545197</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.384538397710713</v>
+        <v>2.384538397710429</v>
       </c>
       <c r="C11">
-        <v>0.4601551349129807</v>
+        <v>0.4601551349133217</v>
       </c>
       <c r="D11">
-        <v>0.5651704775967232</v>
+        <v>0.5651704775968938</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6208848331729087</v>
+        <v>0.6208848331728944</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.295923041686024</v>
+        <v>5.295923041686081</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.459569042902785</v>
+        <v>2.459569042902729</v>
       </c>
       <c r="C12">
-        <v>0.4747705244760141</v>
+        <v>0.4747705244765825</v>
       </c>
       <c r="D12">
-        <v>0.581055957848946</v>
+        <v>0.5810559578490313</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.27952072264623</v>
+        <v>11.279520722646</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6405926419743295</v>
+        <v>0.6405926419742727</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.494244866975237</v>
+        <v>5.494244866975151</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.443330280357998</v>
+        <v>2.443330280358111</v>
       </c>
       <c r="C13">
-        <v>0.4716049347002809</v>
+        <v>0.4716049347012756</v>
       </c>
       <c r="D13">
-        <v>0.5776148894349262</v>
+        <v>0.5776148894346989</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6363266354155996</v>
+        <v>0.6363266354155925</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.451054216619909</v>
+        <v>5.451054216619923</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.390675903575044</v>
+        <v>2.390675903575016</v>
       </c>
       <c r="C14">
-        <v>0.461349610072233</v>
+        <v>0.461349610072574</v>
       </c>
       <c r="D14">
-        <v>0.5664686078884813</v>
+        <v>0.5664686078888792</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.98843750683176</v>
+        <v>10.98843750683181</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6224966319612619</v>
+        <v>0.6224966319612761</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.31202863880624</v>
+        <v>5.312028638806353</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.358650220054557</v>
+        <v>2.358650220054926</v>
       </c>
       <c r="C15">
-        <v>0.4551188836306324</v>
+        <v>0.455118883630206</v>
       </c>
       <c r="D15">
-        <v>0.5596973809475116</v>
+        <v>0.5596973809475969</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.85320212670831</v>
+        <v>10.85320212670814</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6140868062129101</v>
+        <v>0.6140868062129314</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.228212798776497</v>
+        <v>5.228212798776568</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.178334978121029</v>
+        <v>2.178334978120688</v>
       </c>
       <c r="C16">
-        <v>0.4201330927827769</v>
+        <v>0.4201330927818248</v>
       </c>
       <c r="D16">
-        <v>0.5216777469556746</v>
+        <v>0.5216777469562999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.09252931062954</v>
+        <v>10.09252931062963</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5667636691984796</v>
+        <v>0.5667636691984441</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.07031900527997</v>
+        <v>2.070319005280282</v>
       </c>
       <c r="C17">
-        <v>0.3992514273864742</v>
+        <v>0.399251427386929</v>
       </c>
       <c r="D17">
-        <v>0.4989771522729143</v>
+        <v>0.4989771522726301</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.637317865899035</v>
+        <v>9.637317865899149</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5384369084857497</v>
+        <v>0.5384369084856928</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.496660226998131</v>
+        <v>4.496660226998117</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.009050775765616</v>
+        <v>2.009050775765644</v>
       </c>
       <c r="C18">
-        <v>0.3874318121259819</v>
+        <v>0.3874318121259392</v>
       </c>
       <c r="D18">
-        <v>0.4861223363639908</v>
+        <v>0.4861223363639624</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5223766318750904</v>
+        <v>0.5223766318751117</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.346085093755093</v>
+        <v>4.346085093755079</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.988445602031788</v>
+        <v>1.988445602032186</v>
       </c>
       <c r="C19">
-        <v>0.3834607085040176</v>
+        <v>0.3834607085032076</v>
       </c>
       <c r="D19">
-        <v>0.4818022827491575</v>
+        <v>0.4818022827494701</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.292431794874773</v>
+        <v>9.292431794874602</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5169765195193747</v>
+        <v>0.5169765195193321</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.295796819764092</v>
+        <v>4.295796819764107</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.081726463448859</v>
+        <v>2.081726463448888</v>
       </c>
       <c r="C20">
-        <v>0.4014540713512531</v>
+        <v>0.4014540713507841</v>
       </c>
       <c r="D20">
-        <v>0.5013722007125807</v>
+        <v>0.5013722007125523</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.685380140059266</v>
+        <v>9.685380140059294</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5414277136222481</v>
+        <v>0.5414277136222552</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.524872185109132</v>
+        <v>4.524872185109203</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.406093877034323</v>
+        <v>2.406093877034749</v>
       </c>
       <c r="C21">
         <v>0.4643510751886026</v>
       </c>
       <c r="D21">
-        <v>0.5697306315213098</v>
+        <v>0.5697306315210824</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.05356014697486</v>
+        <v>11.05356014697492</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6265458527216481</v>
+        <v>0.6265458527216765</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.352578125455338</v>
+        <v>5.352578125455366</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.627962797831287</v>
+        <v>2.627962797831458</v>
       </c>
       <c r="C22">
-        <v>0.5076758381675859</v>
+        <v>0.5076758381679838</v>
       </c>
       <c r="D22">
-        <v>0.6168466162574759</v>
+        <v>0.6168466162570496</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.99216168090027</v>
+        <v>11.99216168090032</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6848525747238767</v>
+        <v>0.6848525747238483</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.951464061028659</v>
+        <v>5.951464061028673</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>2.508520533139517</v>
       </c>
       <c r="C23">
-        <v>0.4843212004410873</v>
+        <v>0.484321200441201</v>
       </c>
       <c r="D23">
-        <v>0.5914395145118192</v>
+        <v>0.5914395145116202</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.48650129047456</v>
+        <v>11.48650129047451</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.653454714027994</v>
+        <v>0.6534547140279656</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.625369159339371</v>
+        <v>5.625369159339442</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.076566584022743</v>
+        <v>2.076566584022714</v>
       </c>
       <c r="C24">
-        <v>0.4004576834202567</v>
+        <v>0.4004576834207825</v>
       </c>
       <c r="D24">
-        <v>0.5002887949744093</v>
+        <v>0.5002887949742671</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.663640055343194</v>
+        <v>9.66364005534308</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5400748755023699</v>
+        <v>0.540074875502448</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.512104237748986</v>
+        <v>4.512104237749043</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.642749202286325</v>
+        <v>1.642749202286126</v>
       </c>
       <c r="C25">
-        <v>0.3171192501302329</v>
+        <v>0.3171192501294229</v>
       </c>
       <c r="D25">
-        <v>0.40951184354482</v>
+        <v>0.4095118435448484</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.836707678553012</v>
+        <v>7.836707678552898</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4264590863729723</v>
+        <v>0.4264590863729367</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.476202697236673</v>
+        <v>3.476202697236602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.342051844184908</v>
+        <v>1.322585557768519</v>
       </c>
       <c r="C2">
-        <v>0.2597954371588997</v>
+        <v>0.2493817244248646</v>
       </c>
       <c r="D2">
-        <v>0.3467987371551686</v>
+        <v>0.3508937255867153</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.56953129042634</v>
+        <v>6.580367957903803</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007812843266995669</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.347834611393246</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3409940583706828</v>
       </c>
       <c r="L2">
-        <v>2.795648676407268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.787086449427619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.146531829389204</v>
+        <v>1.130210182182964</v>
       </c>
       <c r="C3">
-        <v>0.2226636120892351</v>
+        <v>0.2132047691001446</v>
       </c>
       <c r="D3">
-        <v>0.3060186634126296</v>
+        <v>0.3103549717450989</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.744171002808258</v>
+        <v>5.760982895608663</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007918991767228644</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2967523927832829</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.290846424838179</v>
       </c>
       <c r="L3">
-        <v>2.366877710887749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.3599765227614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029637643210265</v>
+        <v>1.015247960863746</v>
       </c>
       <c r="C4">
-        <v>0.2004953635362483</v>
+        <v>0.1916248576189332</v>
       </c>
       <c r="D4">
-        <v>0.2816061815082378</v>
+        <v>0.2860805043978871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.249885538415754</v>
+        <v>5.270237788163939</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007985133180632011</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2662214688706825</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2608904066637336</v>
       </c>
       <c r="L4">
-        <v>2.115161425982166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.109175453727687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9826765243585101</v>
+        <v>0.9690765124901475</v>
       </c>
       <c r="C5">
-        <v>0.1915922624045407</v>
+        <v>0.1829626212514057</v>
       </c>
       <c r="D5">
-        <v>0.2717871086602486</v>
+        <v>0.2763155611290529</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.051090236173224</v>
+        <v>5.072860326765351</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008012371715806567</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2539567962133731</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2488608874229001</v>
       </c>
       <c r="L5">
-        <v>2.014952580721129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.009319346152665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9749161539898523</v>
+        <v>0.9614474653825482</v>
       </c>
       <c r="C6">
-        <v>0.1901210426072169</v>
+        <v>0.1815314799748933</v>
       </c>
       <c r="D6">
-        <v>0.2701637009851368</v>
+        <v>0.2747010255033047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.018225542038977</v>
+        <v>5.040229754332898</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000801691302760645</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2519300563276587</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2468732634865347</v>
       </c>
       <c r="L6">
-        <v>1.998442008380565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.992866274677155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029001727150757</v>
+        <v>1.014622682401807</v>
       </c>
       <c r="C7">
-        <v>0.2003747988739377</v>
+        <v>0.1915075361079062</v>
       </c>
       <c r="D7">
-        <v>0.2814732697820261</v>
+        <v>0.2859483307081661</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.247194495222601</v>
+        <v>5.267565958333336</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007985499322377741</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2660553873733278</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2607274922483711</v>
       </c>
       <c r="L7">
-        <v>2.113801030696735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.107819890488543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.273905142099835</v>
+        <v>1.255524252556626</v>
       </c>
       <c r="C8">
-        <v>0.2468435211900584</v>
+        <v>0.2367590126125663</v>
       </c>
       <c r="D8">
-        <v>0.3325894302857364</v>
+        <v>0.3367700261618438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.282026372863413</v>
+        <v>6.294954856703242</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007849270294547442</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3300274633500635</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3235093286142501</v>
       </c>
       <c r="L8">
-        <v>2.645056120012896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.637092545969139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.785455434637782</v>
+        <v>1.759121070453261</v>
       </c>
       <c r="C9">
-        <v>0.3444429816669583</v>
+        <v>0.3319550106121909</v>
       </c>
       <c r="D9">
-        <v>0.439316832031281</v>
+        <v>0.4428139877610846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.437639580419955</v>
+        <v>8.434529383447284</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007587495694095894</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.463807395377323</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4549304244792509</v>
       </c>
       <c r="L9">
-        <v>3.809280843178072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.79620619169674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.190783585652952</v>
+        <v>2.158337297415216</v>
       </c>
       <c r="C10">
-        <v>0.4225432915819738</v>
+        <v>0.4082222247417349</v>
       </c>
       <c r="D10">
-        <v>0.5242972824496519</v>
+        <v>0.5271793872526302</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.14501014701528</v>
+        <v>10.12843847092421</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007394442220012243</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5700293022838636</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5593454307223737</v>
       </c>
       <c r="L10">
-        <v>4.797500754545197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.779057137523239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.384538397710429</v>
+        <v>2.349189824922831</v>
       </c>
       <c r="C11">
-        <v>0.4601551349133217</v>
+        <v>0.4449680911249914</v>
       </c>
       <c r="D11">
-        <v>0.5651704775968938</v>
+        <v>0.5677314967473706</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.96251694368124</v>
+        <v>10.939183630564</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007305228459901236</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6208848331728944</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6093447462661672</v>
       </c>
       <c r="L11">
-        <v>5.295923041686081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.27432198108616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.459569042902729</v>
+        <v>2.423096573721466</v>
       </c>
       <c r="C12">
-        <v>0.4747705244765825</v>
+        <v>0.4592489768162125</v>
       </c>
       <c r="D12">
-        <v>0.5810559578490313</v>
+        <v>0.5834872848444377</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.279520722646</v>
+        <v>11.25350027794263</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007271102709321782</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6405926419742727</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6287213200233879</v>
       </c>
       <c r="L12">
-        <v>5.494244866975151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.471290099746312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.443330280358111</v>
+        <v>2.407101109769485</v>
       </c>
       <c r="C13">
-        <v>0.4716049347012756</v>
+        <v>0.4561557581573368</v>
       </c>
       <c r="D13">
-        <v>0.5776148894346989</v>
+        <v>0.5800745533085205</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.21088788502465</v>
+        <v>11.18545251464207</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000727847030161006</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6363266354155925</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6245270023460563</v>
       </c>
       <c r="L13">
-        <v>5.451054216619923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.428399274016272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.390675903575016</v>
+        <v>2.355235415599964</v>
       </c>
       <c r="C14">
-        <v>0.461349610072574</v>
+        <v>0.4461351914658565</v>
       </c>
       <c r="D14">
-        <v>0.5664686078888792</v>
+        <v>0.569019135407018</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.98843750683181</v>
+        <v>10.96488591331365</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007302428760982416</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6224966319612761</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6109294486898236</v>
       </c>
       <c r="L14">
-        <v>5.312028638806353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.290319811923609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.358650220054926</v>
+        <v>2.323689328998142</v>
       </c>
       <c r="C15">
-        <v>0.455118883630206</v>
+        <v>0.4400473370028237</v>
       </c>
       <c r="D15">
-        <v>0.5596973809475969</v>
+        <v>0.5623024295292112</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.85320212670814</v>
+        <v>10.83078662203127</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007317054412297706</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6140868062129314</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6026610206235858</v>
       </c>
       <c r="L15">
-        <v>5.228212798776568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.207060715096205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.178334978120688</v>
+        <v>2.146075329271952</v>
       </c>
       <c r="C16">
-        <v>0.4201330927818248</v>
+        <v>0.4058678178357695</v>
       </c>
       <c r="D16">
-        <v>0.5216777469562999</v>
+        <v>0.5245798390657512</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.09252931062963</v>
+        <v>10.07638401213563</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007400233348922793</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5667636691984441</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.556134899745075</v>
       </c>
       <c r="L16">
-        <v>4.766106927433214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.747851228352332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.070319005280282</v>
+        <v>2.039680678875158</v>
       </c>
       <c r="C17">
-        <v>0.399251427386929</v>
+        <v>0.3854713156003839</v>
       </c>
       <c r="D17">
-        <v>0.4989771522726301</v>
+        <v>0.5020496108321311</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.637317865899149</v>
+        <v>9.624834959468899</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007450815969426085</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5384369084856928</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5282870089786584</v>
       </c>
       <c r="L17">
-        <v>4.496660226998117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.479967718632864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.009050775765644</v>
+        <v>1.979334055810284</v>
       </c>
       <c r="C18">
-        <v>0.3874318121259392</v>
+        <v>0.3739278761215132</v>
       </c>
       <c r="D18">
-        <v>0.4861223363639624</v>
+        <v>0.4892890661029412</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.379219965604051</v>
+        <v>9.368786218270117</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007479789193046135</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5223766318751117</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5124990955102646</v>
       </c>
       <c r="L18">
-        <v>4.346085093755079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.330228907337059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.988445602032186</v>
+        <v>1.959039233735695</v>
       </c>
       <c r="C19">
-        <v>0.3834607085032076</v>
+        <v>0.3700498382832222</v>
       </c>
       <c r="D19">
-        <v>0.4818022827494701</v>
+        <v>0.4850003448742655</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.292431794874602</v>
+        <v>9.282682859450119</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007489581977512475</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5169765195193321</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5071907274268384</v>
       </c>
       <c r="L19">
-        <v>4.295796819764107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.280214238184783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.081726463448888</v>
+        <v>2.050916722573135</v>
       </c>
       <c r="C20">
-        <v>0.4014540713507841</v>
+        <v>0.3876226234654894</v>
       </c>
       <c r="D20">
-        <v>0.5013722007125523</v>
+        <v>0.5044269213254324</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.685380140059294</v>
+        <v>9.672513511132479</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007445444734604477</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5414277136222552</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5312271685410437</v>
       </c>
       <c r="L20">
-        <v>4.524872185109203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.508020075715507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.406093877034749</v>
+        <v>2.370422478437206</v>
       </c>
       <c r="C21">
-        <v>0.4643510751886026</v>
+        <v>0.4490678993573454</v>
       </c>
       <c r="D21">
-        <v>0.5697306315210824</v>
+        <v>0.5722547121219179</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.05356014697492</v>
+        <v>11.02945903232478</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007295402235840667</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6265458527216765</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6149106031196041</v>
       </c>
       <c r="L21">
-        <v>5.352578125455366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.33059629841091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.627962797831458</v>
+        <v>2.588963845869159</v>
       </c>
       <c r="C22">
-        <v>0.5076758381679838</v>
+        <v>0.4914041910724336</v>
       </c>
       <c r="D22">
-        <v>0.6168466162570496</v>
+        <v>0.6189748401810959</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.99216168090032</v>
+        <v>11.95995107136247</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007195240581976561</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6848525747238483</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6722373623240543</v>
       </c>
       <c r="L22">
-        <v>5.951464061028673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.925153007984449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.508520533139517</v>
+        <v>2.471314369420668</v>
       </c>
       <c r="C23">
-        <v>0.484321200441201</v>
+        <v>0.468581551681325</v>
       </c>
       <c r="D23">
-        <v>0.5914395145116202</v>
+        <v>0.5937844987435028</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.48650129047451</v>
+        <v>11.4587049907143</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007248951204871168</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6534547140279656</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6413672611147163</v>
       </c>
       <c r="L23">
-        <v>5.625369159339442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.601486497461423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.076566584022714</v>
+        <v>2.045834371855364</v>
       </c>
       <c r="C24">
-        <v>0.4004576834207825</v>
+        <v>0.3866494530132343</v>
       </c>
       <c r="D24">
-        <v>0.5002887949742671</v>
+        <v>0.5033515462097284</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.66364005534308</v>
+        <v>9.650947080618295</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007447873396311214</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.540074875502448</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5298972363119887</v>
       </c>
       <c r="L24">
-        <v>4.512104237749043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.495324474635169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.642749202286126</v>
+        <v>1.618596065108392</v>
       </c>
       <c r="C25">
-        <v>0.3171192501294229</v>
+        <v>0.3052884059881649</v>
       </c>
       <c r="D25">
-        <v>0.4095118435448484</v>
+        <v>0.4132093833480326</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.836707678552898</v>
+        <v>7.838159779494731</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007658099184261804</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4264590863729367</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4182281712186793</v>
       </c>
       <c r="L25">
-        <v>3.476202697236602</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.46470994126085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.322585557768519</v>
+        <v>1.910474857651764</v>
       </c>
       <c r="C2">
-        <v>0.2493817244248646</v>
+        <v>0.4243683893985235</v>
       </c>
       <c r="D2">
-        <v>0.3508937255867153</v>
+        <v>0.02552100901657894</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.580367957903803</v>
+        <v>2.072075912195658</v>
       </c>
       <c r="G2">
-        <v>0.0007812843266995669</v>
+        <v>0.0007723436392389817</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3409940583706828</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.787086449427619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.797032496934023</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.653094920928382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.130210182182964</v>
+        <v>1.650866004158985</v>
       </c>
       <c r="C3">
-        <v>0.2132047691001446</v>
+        <v>0.3722278539329693</v>
       </c>
       <c r="D3">
-        <v>0.3103549717450989</v>
+        <v>0.02539002102471954</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.760982895608663</v>
+        <v>1.83238403027309</v>
       </c>
       <c r="G3">
-        <v>0.0007918991767228644</v>
+        <v>0.0007805516966422472</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.290846424838179</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.3599765227614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.373493222853156</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.466799560616494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.015247960863746</v>
+        <v>1.493056136303409</v>
       </c>
       <c r="C4">
-        <v>0.1916248576189332</v>
+        <v>0.3403631747836755</v>
       </c>
       <c r="D4">
-        <v>0.2860805043978871</v>
+        <v>0.02536683403686268</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.270237788163939</v>
+        <v>1.689829160664701</v>
       </c>
       <c r="G4">
-        <v>0.0007985133180632011</v>
+        <v>0.0007856987216443228</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2608904066637336</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.109175453727687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.123840924189111</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.356205132081598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9690765124901475</v>
+        <v>1.429079024997947</v>
       </c>
       <c r="C5">
-        <v>0.1829626212514057</v>
+        <v>0.3274045173793212</v>
       </c>
       <c r="D5">
-        <v>0.2763155611290529</v>
+        <v>0.02536996773868694</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.072860326765351</v>
+        <v>1.632753603571629</v>
       </c>
       <c r="G5">
-        <v>0.0008012371715806567</v>
+        <v>0.00078782549645282</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2488608874229001</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.009319346152665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.024253526111778</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.311972367372547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9614474653825482</v>
+        <v>1.418473813336675</v>
       </c>
       <c r="C6">
-        <v>0.1815314799748933</v>
+        <v>0.3252540262054566</v>
       </c>
       <c r="D6">
-        <v>0.2747010255033047</v>
+        <v>0.02537119950858013</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.040229754332898</v>
+        <v>1.623333722379755</v>
       </c>
       <c r="G6">
-        <v>0.000801691302760645</v>
+        <v>0.0007881804804665252</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2468732634865347</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.992866274677155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.007834565126487</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.304674785243705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.014622682401807</v>
+        <v>1.492192061973583</v>
       </c>
       <c r="C7">
-        <v>0.1915075361079062</v>
+        <v>0.3401883169670157</v>
       </c>
       <c r="D7">
-        <v>0.2859483307081661</v>
+        <v>0.02536682757551389</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.267565958333336</v>
+        <v>1.689055482891519</v>
       </c>
       <c r="G7">
-        <v>0.0007985499322377741</v>
+        <v>0.0007857272824571452</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2607274922483711</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.107819890488543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.122489720974656</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.355605358266459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.255524252556626</v>
+        <v>1.820588513498194</v>
       </c>
       <c r="C8">
-        <v>0.2367590126125663</v>
+        <v>0.4063522497048098</v>
       </c>
       <c r="D8">
-        <v>0.3367700261618438</v>
+        <v>0.02546279573518362</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.294954856703242</v>
+        <v>1.988380074447207</v>
       </c>
       <c r="G8">
-        <v>0.0007849270294547442</v>
+        <v>0.0007751530251837608</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3235093286142501</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.637092545969139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.648530075767098</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.587998099920327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.759121070453261</v>
+        <v>2.480616262300657</v>
       </c>
       <c r="C9">
-        <v>0.3319550106121909</v>
+        <v>0.5378341497938095</v>
       </c>
       <c r="D9">
-        <v>0.4428139877610846</v>
+        <v>0.02620211487008461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.434529383447284</v>
+        <v>2.6194548142592</v>
       </c>
       <c r="G9">
-        <v>0.0007587495694095894</v>
+        <v>0.0007551441030939812</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4549304244792509</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.79620619169674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.788899384738968</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.079925913545154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.158337297415216</v>
+        <v>2.980625384432017</v>
       </c>
       <c r="C10">
-        <v>0.4082222247417349</v>
+        <v>0.6362969653485777</v>
       </c>
       <c r="D10">
-        <v>0.5271793872526302</v>
+        <v>0.02724823860442882</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.12843847092421</v>
+        <v>3.12228969271149</v>
       </c>
       <c r="G10">
-        <v>0.0007394442220012243</v>
+        <v>0.0007406780438392194</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5593454307223737</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.779057137523239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.741219365373723</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.473521294669467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.349189824922831</v>
+        <v>3.212703183383383</v>
       </c>
       <c r="C11">
-        <v>0.4449680911249914</v>
+        <v>0.6816758956231581</v>
       </c>
       <c r="D11">
-        <v>0.5677314967473706</v>
+        <v>0.02788355364448236</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.939183630564</v>
+        <v>3.363016145438735</v>
       </c>
       <c r="G11">
-        <v>0.0007305228459901236</v>
+        <v>0.0007340868886874381</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6093447462661672</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.27432198108616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.215098437691182</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.66242100487635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.423096573721466</v>
+        <v>3.301372917299204</v>
       </c>
       <c r="C12">
-        <v>0.4592489768162125</v>
+        <v>0.6989581705220189</v>
       </c>
       <c r="D12">
-        <v>0.5834872848444377</v>
+        <v>0.02815271227256133</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.25350027794263</v>
+        <v>3.456264431187805</v>
       </c>
       <c r="G12">
-        <v>0.0007271102709321782</v>
+        <v>0.0007315827399781982</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6287213200233879</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.471290099746312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.402312996734523</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.735673443603346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.407101109769485</v>
+        <v>3.282239241730281</v>
       </c>
       <c r="C13">
-        <v>0.4561557581573368</v>
+        <v>0.6952315577540844</v>
       </c>
       <c r="D13">
-        <v>0.5800745533085205</v>
+        <v>0.02809336542124541</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.18545251464207</v>
+        <v>3.436081986497243</v>
       </c>
       <c r="G13">
-        <v>0.000727847030161006</v>
+        <v>0.0007321225461667697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6245270023460563</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.428399274016272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.361609302138092</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.719815088852954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.355235415599964</v>
+        <v>3.219981585310109</v>
       </c>
       <c r="C14">
-        <v>0.4461351914658565</v>
+        <v>0.683095678207053</v>
       </c>
       <c r="D14">
-        <v>0.569019135407018</v>
+        <v>0.0279050865528383</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.96488591331365</v>
+        <v>3.37064343131874</v>
       </c>
       <c r="G14">
-        <v>0.0007302428760982416</v>
+        <v>0.0007338810807440144</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6109294486898236</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.290319811923609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.230331522913303</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.668411052876934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.323689328998142</v>
+        <v>3.181953270169629</v>
       </c>
       <c r="C15">
-        <v>0.4400473370028237</v>
+        <v>0.6756752719284123</v>
       </c>
       <c r="D15">
-        <v>0.5623024295292112</v>
+        <v>0.02779367717358383</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.83078662203127</v>
+        <v>3.330845013073628</v>
       </c>
       <c r="G15">
-        <v>0.0007317054412297706</v>
+        <v>0.0007349569326894269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6026610206235858</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.207060715096205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.151000346788209</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.637158854703102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.146075329271952</v>
+        <v>2.965561755883527</v>
       </c>
       <c r="C16">
-        <v>0.4058678178357695</v>
+        <v>0.6333443856748033</v>
       </c>
       <c r="D16">
-        <v>0.5245798390657512</v>
+        <v>0.02721037601637732</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.07638401213563</v>
+        <v>3.106828329022989</v>
       </c>
       <c r="G16">
-        <v>0.0007400233348922793</v>
+        <v>0.0007411080463372782</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.556134899745075</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.747851228352332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.71121775872254</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.461398884410514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.039680678875158</v>
+        <v>2.834079751515333</v>
       </c>
       <c r="C17">
-        <v>0.3854713156003839</v>
+        <v>0.6075365366984613</v>
       </c>
       <c r="D17">
-        <v>0.5020496108321311</v>
+        <v>0.02689693548352423</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.624834959468899</v>
+        <v>2.972707226567962</v>
       </c>
       <c r="G17">
-        <v>0.0007450815969426085</v>
+        <v>0.0007448746224431055</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5282870089786584</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.479967718632864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.453010398215426</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.356294249821971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.979334055810284</v>
+        <v>2.758881726227287</v>
       </c>
       <c r="C18">
-        <v>0.3739278761215132</v>
+        <v>0.5927470800978085</v>
       </c>
       <c r="D18">
-        <v>0.4892890661029412</v>
+        <v>0.02673124635863644</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.368786218270117</v>
+        <v>2.896666300256982</v>
       </c>
       <c r="G18">
-        <v>0.0007479789193046135</v>
+        <v>0.0007470405580416234</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5124990955102646</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.330228907337059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.308178517068782</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.296746509840119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.959039233735695</v>
+        <v>2.733490746877806</v>
       </c>
       <c r="C19">
-        <v>0.3700498382832222</v>
+        <v>0.5877485469219437</v>
       </c>
       <c r="D19">
-        <v>0.4850003448742655</v>
+        <v>0.0266775050594994</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.282682859450119</v>
+        <v>2.87109952293514</v>
       </c>
       <c r="G19">
-        <v>0.0007489581977512475</v>
+        <v>0.0007477739981403477</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5071907274268384</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.280214238184783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.259725074789117</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.276732047338626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.050916722573135</v>
+        <v>2.848031196562658</v>
       </c>
       <c r="C20">
-        <v>0.3876226234654894</v>
+        <v>0.6102780770721949</v>
       </c>
       <c r="D20">
-        <v>0.5044269213254324</v>
+        <v>0.0269287552709585</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.672513511132479</v>
+        <v>2.986868196474632</v>
       </c>
       <c r="G20">
-        <v>0.0007445444734604477</v>
+        <v>0.000744473758750051</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5312271685410437</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.508020075715507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.480104091101694</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.367387102814547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.370422478437206</v>
+        <v>3.238245782458137</v>
       </c>
       <c r="C21">
-        <v>0.4490678993573454</v>
+        <v>0.6866575142776981</v>
       </c>
       <c r="D21">
-        <v>0.5722547121219179</v>
+        <v>0.02795955987103582</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.02945903232478</v>
+        <v>3.389804231519946</v>
       </c>
       <c r="G21">
-        <v>0.0007295402235840667</v>
+        <v>0.0007333648425138627</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6149106031196041</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.33059629841091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.268661394234897</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.683460196682333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.588963845869159</v>
+        <v>3.497924474166723</v>
       </c>
       <c r="C22">
-        <v>0.4914041910724336</v>
+        <v>0.7371529512660686</v>
       </c>
       <c r="D22">
-        <v>0.6189748401810959</v>
+        <v>0.02880376425589404</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.95995107136247</v>
+        <v>3.665570390730693</v>
       </c>
       <c r="G22">
-        <v>0.0007195240581976561</v>
+        <v>0.000726051968444108</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6722373623240543</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.925153007984449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.830773285163161</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.900258074547338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.471314369420668</v>
+        <v>3.358860341211141</v>
       </c>
       <c r="C23">
-        <v>0.468581551681325</v>
+        <v>0.7101459222558333</v>
       </c>
       <c r="D23">
-        <v>0.5937844987435028</v>
+        <v>0.02833526697894939</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.4587049907143</v>
+        <v>3.517106343501894</v>
       </c>
       <c r="G23">
-        <v>0.0007248951204871168</v>
+        <v>0.0007299625457420504</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6413672611147163</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.601486497461423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.525649659196134</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.783492546359156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.045834371855364</v>
+        <v>2.841722534122084</v>
       </c>
       <c r="C24">
-        <v>0.3866494530132343</v>
+        <v>0.6090384788019207</v>
       </c>
       <c r="D24">
-        <v>0.5033515462097284</v>
+        <v>0.02691432474702182</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.650947080618295</v>
+        <v>2.980462724761708</v>
       </c>
       <c r="G24">
-        <v>0.0007447873396311214</v>
+        <v>0.0007446549872161987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5298972363119887</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.495324474635169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.467843907195771</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.362369310131228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.618596065108392</v>
+        <v>2.299828474219566</v>
       </c>
       <c r="C25">
-        <v>0.3052884059881649</v>
+        <v>0.5019983248637629</v>
       </c>
       <c r="D25">
-        <v>0.4132093833480326</v>
+        <v>0.02592792369840424</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.838159779494731</v>
+        <v>2.442862117658834</v>
       </c>
       <c r="G25">
-        <v>0.0007658099184261804</v>
+        <v>0.0007604984396497935</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4182281712186793</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.46470994126085</v>
+        <v>3.464522410832785</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.942027609909232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.910474857651764</v>
+        <v>0.9566141085984725</v>
       </c>
       <c r="C2">
-        <v>0.4243683893985235</v>
+        <v>0.1682657676924961</v>
       </c>
       <c r="D2">
-        <v>0.02552100901657894</v>
+        <v>0.1168304308384194</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.072075912195658</v>
+        <v>0.7322072129633668</v>
       </c>
       <c r="G2">
-        <v>0.0007723436392389817</v>
+        <v>0.4536746717458442</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3993898556435553</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.10292919368767</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8028653843310281</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1733532567918274</v>
       </c>
       <c r="M2">
-        <v>2.797032496934023</v>
+        <v>0.2099920417356742</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.653094920928382</v>
+        <v>1.743776681766946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.650866004158985</v>
+        <v>0.8326131617988892</v>
       </c>
       <c r="C3">
-        <v>0.3722278539329693</v>
+        <v>0.1701982928807162</v>
       </c>
       <c r="D3">
-        <v>0.02539002102471954</v>
+        <v>0.1077037514685912</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.83238403027309</v>
+        <v>0.7297271236473151</v>
       </c>
       <c r="G3">
-        <v>0.0007805516966422472</v>
+        <v>0.4550840314266154</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4059909798681431</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1057052251007686</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7033078328120581</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1597009758942107</v>
       </c>
       <c r="M3">
-        <v>2.373493222853156</v>
+        <v>0.1845518988393913</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.466799560616494</v>
+        <v>1.760225617576268</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.493056136303409</v>
+        <v>0.7565900534407319</v>
       </c>
       <c r="C4">
-        <v>0.3403631747836755</v>
+        <v>0.1714701039748725</v>
       </c>
       <c r="D4">
-        <v>0.02536683403686268</v>
+        <v>0.1021816083025655</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.689829160664701</v>
+        <v>0.7293478755625316</v>
       </c>
       <c r="G4">
-        <v>0.0007856987216443228</v>
+        <v>0.4568211772110615</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4105840380704606</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1075159570631126</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.642114096761091</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1514424239628909</v>
       </c>
       <c r="M4">
-        <v>2.123840924189111</v>
+        <v>0.1689972447113881</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.356205132081598</v>
+        <v>1.773294740322257</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.429079024997947</v>
+        <v>0.7256303921857068</v>
       </c>
       <c r="C5">
-        <v>0.3274045173793212</v>
+        <v>0.1720096440141141</v>
       </c>
       <c r="D5">
-        <v>0.02536996773868694</v>
+        <v>0.09995095777809127</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.632753603571629</v>
+        <v>0.7294722143352459</v>
       </c>
       <c r="G5">
-        <v>0.00078782549645282</v>
+        <v>0.4577408905943088</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4125883229699241</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1082801939321865</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6171550704990381</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1481066914851326</v>
       </c>
       <c r="M5">
-        <v>2.024253526111778</v>
+        <v>0.1626731885921906</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.311972367372547</v>
+        <v>1.779344786529563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.418473813336675</v>
+        <v>0.7204905609652315</v>
       </c>
       <c r="C6">
-        <v>0.3252540262054566</v>
+        <v>0.1721005140065905</v>
       </c>
       <c r="D6">
-        <v>0.02537119950858013</v>
+        <v>0.09958172315440095</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.623333722379755</v>
+        <v>0.729509458043907</v>
       </c>
       <c r="G6">
-        <v>0.0007881804804665252</v>
+        <v>0.4579061904765638</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4129290493384516</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1084086758737879</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6130091483097146</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1475545469859085</v>
       </c>
       <c r="M6">
-        <v>2.007834565126487</v>
+        <v>0.16162391075936</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.304674785243705</v>
+        <v>1.780392498805156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.492192061973583</v>
+        <v>0.7561724487599975</v>
       </c>
       <c r="C7">
-        <v>0.3401883169670157</v>
+        <v>0.1714772945043599</v>
       </c>
       <c r="D7">
-        <v>0.02536682757551389</v>
+        <v>0.1021514464571283</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.689055482891519</v>
+        <v>0.7293484344309249</v>
       </c>
       <c r="G7">
-        <v>0.0007857272824571452</v>
+        <v>0.4568327327293886</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4106105358833716</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1075261576148936</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6417775873544826</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1513973187906075</v>
       </c>
       <c r="M7">
-        <v>2.122489720974656</v>
+        <v>0.1689118996734145</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.355605358266459</v>
+        <v>1.77337342973162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.820588513498194</v>
+        <v>0.9138297626689678</v>
       </c>
       <c r="C8">
-        <v>0.4063522497048098</v>
+        <v>0.1689143099316617</v>
       </c>
       <c r="D8">
-        <v>0.02546279573518362</v>
+        <v>0.1136660613987814</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.988380074447207</v>
+        <v>0.7311094072383995</v>
       </c>
       <c r="G8">
-        <v>0.0007751530251837608</v>
+        <v>0.453975123432464</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4015518930980591</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1038640958492678</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7685478439050968</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1686192922478398</v>
       </c>
       <c r="M8">
-        <v>2.648530075767098</v>
+        <v>0.2012054461074513</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.587998099920327</v>
+        <v>1.748818193747596</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.480616262300657</v>
+        <v>1.224310574204679</v>
       </c>
       <c r="C9">
-        <v>0.5378341497938095</v>
+        <v>0.1645724506761752</v>
       </c>
       <c r="D9">
-        <v>0.02620211487008461</v>
+        <v>0.1369365976702568</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.6194548142592</v>
+        <v>0.7440459576203651</v>
       </c>
       <c r="G9">
-        <v>0.0007551441030939812</v>
+        <v>0.4556384259357671</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3882228657739901</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09754276545631235</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.016915496301891</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2034477385464797</v>
       </c>
       <c r="M9">
-        <v>3.788899384738968</v>
+        <v>0.2651492604153738</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079925913545154</v>
+        <v>1.725284234298243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.980625384432017</v>
+        <v>1.453849139183575</v>
       </c>
       <c r="C10">
-        <v>0.6362969653485777</v>
+        <v>0.1618110514267954</v>
       </c>
       <c r="D10">
-        <v>0.02724823860442882</v>
+        <v>0.1545178274193262</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.12228969271149</v>
+        <v>0.7599304588251385</v>
       </c>
       <c r="G10">
-        <v>0.0007406780438392194</v>
+        <v>0.4618010475692529</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3813534669912997</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09344723026537238</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.199693535263776</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2297883616663654</v>
       </c>
       <c r="M10">
-        <v>4.741219365373723</v>
+        <v>0.3126484583823625</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.473521294669467</v>
+        <v>1.724545302557061</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.212703183383383</v>
+        <v>1.558731664247404</v>
       </c>
       <c r="C11">
-        <v>0.6816758956231581</v>
+        <v>0.1606505955305551</v>
       </c>
       <c r="D11">
-        <v>0.02788355364448236</v>
+        <v>0.1626360844931298</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.363016145438735</v>
+        <v>0.7686823060272019</v>
       </c>
       <c r="G11">
-        <v>0.0007340868886874381</v>
+        <v>0.4657970092310393</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3789147852278205</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09170892959356713</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.283015461557852</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2419602744332963</v>
       </c>
       <c r="M11">
-        <v>5.215098437691182</v>
+        <v>0.3344041248359488</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.66242100487635</v>
+        <v>1.728164979729002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.301372917299204</v>
+        <v>1.598527526496724</v>
       </c>
       <c r="C12">
-        <v>0.6989581705220189</v>
+        <v>0.1602251706792615</v>
       </c>
       <c r="D12">
-        <v>0.02815271227256133</v>
+        <v>0.1657288580972391</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.456264431187805</v>
+        <v>0.7722282059988075</v>
       </c>
       <c r="G12">
-        <v>0.0007315827399781982</v>
+        <v>0.4674922604404514</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3780945928062351</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09106913523808302</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.314601579216117</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2465989082553222</v>
       </c>
       <c r="M12">
-        <v>5.402312996734523</v>
+        <v>0.3426666583329521</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.735673443603346</v>
+        <v>1.730136598015378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.282239241730281</v>
+        <v>1.589953050544665</v>
       </c>
       <c r="C13">
-        <v>0.6952315577540844</v>
+        <v>0.1603161660845487</v>
       </c>
       <c r="D13">
-        <v>0.02809336542124541</v>
+        <v>0.1650619276664713</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.436081986497243</v>
+        <v>0.7714540207466953</v>
       </c>
       <c r="G13">
-        <v>0.0007321225461667697</v>
+        <v>0.4671188849434031</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3782665660443456</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09120609669484203</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.307797290151541</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.245598552382333</v>
       </c>
       <c r="M13">
-        <v>5.361609302138092</v>
+        <v>0.340886053177428</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.719815088852954</v>
+        <v>1.729684716663655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.219981585310109</v>
+        <v>1.562004034184469</v>
       </c>
       <c r="C14">
-        <v>0.683095678207053</v>
+        <v>0.1606153132112809</v>
       </c>
       <c r="D14">
-        <v>0.0279050865528383</v>
+        <v>0.1628901493708952</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.37064343131874</v>
+        <v>0.7689693111073765</v>
       </c>
       <c r="G14">
-        <v>0.0007338810807440144</v>
+        <v>0.4659327667863096</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3788452101787243</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09165592023329339</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.28561333875345</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2423412956965336</v>
       </c>
       <c r="M14">
-        <v>5.230331522913303</v>
+        <v>0.3350833877713555</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.668411052876934</v>
+        <v>1.728314951793607</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.181953270169629</v>
+        <v>1.544895140381641</v>
       </c>
       <c r="C15">
-        <v>0.6756752719284123</v>
+        <v>0.1608003822635666</v>
       </c>
       <c r="D15">
-        <v>0.02779367717358383</v>
+        <v>0.1615623284140213</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.330845013073628</v>
+        <v>0.7674779162551175</v>
       </c>
       <c r="G15">
-        <v>0.0007349569326894269</v>
+        <v>0.4652302706026745</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3792132383892834</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0919338704032171</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.27202971323365</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2403500262103648</v>
       </c>
       <c r="M15">
-        <v>5.151000346788209</v>
+        <v>0.3315323183883265</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.637158854703102</v>
+        <v>1.727555174878063</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.965561755883527</v>
+        <v>1.447005200062051</v>
       </c>
       <c r="C16">
-        <v>0.6333443856748033</v>
+        <v>0.1618888371222624</v>
       </c>
       <c r="D16">
-        <v>0.02721037601637732</v>
+        <v>0.1539898089179985</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.106828329022989</v>
+        <v>0.7593902486348583</v>
       </c>
       <c r="G16">
-        <v>0.0007411080463372782</v>
+        <v>0.4615647892821215</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3815270366296062</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09356338690255939</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.194252509055161</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2289968915411151</v>
       </c>
       <c r="M16">
-        <v>4.71121775872254</v>
+        <v>0.3112298925180923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.461398884410514</v>
+        <v>1.724391048093537</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.834079751515333</v>
+        <v>1.387080343686051</v>
       </c>
       <c r="C17">
-        <v>0.6075365366984613</v>
+        <v>0.1625812583021187</v>
       </c>
       <c r="D17">
-        <v>0.02689693548352423</v>
+        <v>0.1493760295328173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.972707226567962</v>
+        <v>0.7548281019345566</v>
       </c>
       <c r="G17">
-        <v>0.0007448746224431055</v>
+        <v>0.459628906724987</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3831254277186247</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09459536174989402</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.146589612668691</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.222082120491919</v>
       </c>
       <c r="M17">
-        <v>4.453010398215426</v>
+        <v>0.2988148964593051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.356294249821971</v>
+        <v>1.723485365230204</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.758881726227287</v>
+        <v>1.352656062987336</v>
       </c>
       <c r="C18">
-        <v>0.5927470800978085</v>
+        <v>0.1629885142732164</v>
       </c>
       <c r="D18">
-        <v>0.02673124635863644</v>
+        <v>0.1467335659768452</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.896666300256982</v>
+        <v>0.7523469205519788</v>
       </c>
       <c r="G18">
-        <v>0.0007470405580416234</v>
+        <v>0.458627017218376</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.384109080704846</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09520063838674275</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.119191116607027</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2181226204947677</v>
       </c>
       <c r="M18">
-        <v>4.308178517068782</v>
+        <v>0.2916878723683496</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.296746509840119</v>
+        <v>1.723334749032503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.733490746877806</v>
+        <v>1.341007599858671</v>
       </c>
       <c r="C19">
-        <v>0.5877485469219437</v>
+        <v>0.1631279414167466</v>
       </c>
       <c r="D19">
-        <v>0.0266775050594994</v>
+        <v>0.145840770504833</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.87109952293514</v>
+        <v>0.7515310046246526</v>
       </c>
       <c r="G19">
-        <v>0.0007477739981403477</v>
+        <v>0.4583066463221499</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3844530366842775</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09540757085064477</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.109916939054301</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2167849771940524</v>
       </c>
       <c r="M19">
-        <v>4.259725074789117</v>
+        <v>0.2892770628846932</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.276732047338626</v>
+        <v>1.723346407448247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.848031196562658</v>
+        <v>1.393454918815053</v>
       </c>
       <c r="C20">
-        <v>0.6102780770721949</v>
+        <v>0.1625066163126547</v>
       </c>
       <c r="D20">
-        <v>0.0269287552709585</v>
+        <v>0.1498660000542316</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.986868196474632</v>
+        <v>0.7552988792693753</v>
       </c>
       <c r="G20">
-        <v>0.000744473758750051</v>
+        <v>0.4598233621109955</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3829485889274267</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09448429044923223</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.151661698340916</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2228163632878335</v>
       </c>
       <c r="M20">
-        <v>4.480104091101694</v>
+        <v>0.3001350505423872</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.367387102814547</v>
+        <v>1.723543224911822</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.238245782458137</v>
+        <v>1.570211087637205</v>
       </c>
       <c r="C21">
-        <v>0.6866575142776981</v>
+        <v>0.1605270640269296</v>
       </c>
       <c r="D21">
-        <v>0.02795955987103582</v>
+        <v>0.1635275391591762</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.389804231519946</v>
+        <v>0.769692738489951</v>
       </c>
       <c r="G21">
-        <v>0.0007333648425138627</v>
+        <v>0.4662761296891205</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3786724072017478</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09152329080662902</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.292128310213087</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2432972153406325</v>
       </c>
       <c r="M21">
-        <v>5.268661394234897</v>
+        <v>0.3367870926336352</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.683460196682333</v>
+        <v>1.7287007106207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.497924474166723</v>
+        <v>1.686199015936523</v>
       </c>
       <c r="C22">
-        <v>0.7371529512660686</v>
+        <v>0.159315126920724</v>
       </c>
       <c r="D22">
-        <v>0.02880376425589404</v>
+        <v>0.1725649909491977</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.665570390730693</v>
+        <v>0.7804571300959537</v>
       </c>
       <c r="G22">
-        <v>0.000726051968444108</v>
+        <v>0.4715599919906879</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3764820328022296</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08969598185620242</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.384133515472598</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2568550684029702</v>
       </c>
       <c r="M22">
-        <v>5.830773285163161</v>
+        <v>0.36088345420427</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.900258074547338</v>
+        <v>1.735590392925758</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.358860341211141</v>
+        <v>1.624246989311104</v>
       </c>
       <c r="C23">
-        <v>0.7101459222558333</v>
+        <v>0.1599543879010241</v>
       </c>
       <c r="D23">
-        <v>0.02833526697894939</v>
+        <v>0.1677311433793989</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.517106343501894</v>
+        <v>0.7745835175994316</v>
       </c>
       <c r="G23">
-        <v>0.0007299625457420504</v>
+        <v>0.4686386357440142</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3775941826090019</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.09066120102009734</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.335007070398802</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2496024621046615</v>
       </c>
       <c r="M23">
-        <v>5.525649659196134</v>
+        <v>0.3480087774713496</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.783492546359156</v>
+        <v>1.731580137681789</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.841722534122084</v>
+        <v>1.390572889236097</v>
       </c>
       <c r="C24">
-        <v>0.6090384788019207</v>
+        <v>0.1625403334006492</v>
       </c>
       <c r="D24">
-        <v>0.02691432474702182</v>
+        <v>0.1496444531410219</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.980462724761708</v>
+        <v>0.7550856005295827</v>
       </c>
       <c r="G24">
-        <v>0.0007446549872161987</v>
+        <v>0.459735103649308</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3830283365118063</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.09453446850648639</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.149368598039388</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2224843627748925</v>
       </c>
       <c r="M24">
-        <v>4.467843907195771</v>
+        <v>0.2995381763190963</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.362369310131228</v>
+        <v>1.723515916258947</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.299828474219566</v>
+        <v>1.140114135238406</v>
       </c>
       <c r="C25">
-        <v>0.5019983248637629</v>
+        <v>0.1656726538772588</v>
       </c>
       <c r="D25">
-        <v>0.02592792369840424</v>
+        <v>0.1305610396830161</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.442862117658834</v>
+        <v>0.7394711676457604</v>
       </c>
       <c r="G25">
-        <v>0.0007604984396497935</v>
+        <v>0.4543594690239487</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3913319860304441</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09915833808777919</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9497060575901628</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1939018379742237</v>
       </c>
       <c r="M25">
-        <v>3.464522410832785</v>
+        <v>0.2477704442793609</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.942027609909232</v>
+        <v>1.728861017660776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9566141085984725</v>
+        <v>0.5454946546819031</v>
       </c>
       <c r="C2">
-        <v>0.1682657676924961</v>
+        <v>0.2882628619767331</v>
       </c>
       <c r="D2">
-        <v>0.1168304308384194</v>
+        <v>0.2026351672010023</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7322072129633668</v>
+        <v>1.652177775467138</v>
       </c>
       <c r="G2">
-        <v>0.4536746717458442</v>
+        <v>0.9646673426281538</v>
       </c>
       <c r="H2">
-        <v>0.3993898556435553</v>
+        <v>1.016199478200917</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.10292919368767</v>
+        <v>0.2691701291591979</v>
       </c>
       <c r="K2">
-        <v>0.8028653843310281</v>
+        <v>0.2568629249896333</v>
       </c>
       <c r="L2">
-        <v>0.1733532567918274</v>
+        <v>0.3037962595540051</v>
       </c>
       <c r="M2">
-        <v>0.2099920417356742</v>
+        <v>0.1893672929400942</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.743776681766946</v>
+        <v>4.008469675755563</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8326131617988892</v>
+        <v>0.5097306866138069</v>
       </c>
       <c r="C3">
-        <v>0.1701982928807162</v>
+        <v>0.2892496447514041</v>
       </c>
       <c r="D3">
-        <v>0.1077037514685912</v>
+        <v>0.2010410331994308</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7297271236473151</v>
+        <v>1.661741970935012</v>
       </c>
       <c r="G3">
-        <v>0.4550840314266154</v>
+        <v>0.9717949163800839</v>
       </c>
       <c r="H3">
-        <v>0.4059909798681431</v>
+        <v>1.023297572375746</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1057052251007686</v>
+        <v>0.2710674796308936</v>
       </c>
       <c r="K3">
-        <v>0.7033078328120581</v>
+        <v>0.225492109653743</v>
       </c>
       <c r="L3">
-        <v>0.1597009758942107</v>
+        <v>0.3013966425616843</v>
       </c>
       <c r="M3">
-        <v>0.1845518988393913</v>
+        <v>0.1826640379586415</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.760225617576268</v>
+        <v>4.038187385106966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7565900534407319</v>
+        <v>0.4878859361623711</v>
       </c>
       <c r="C4">
-        <v>0.1714701039748725</v>
+        <v>0.2899043686539642</v>
       </c>
       <c r="D4">
-        <v>0.1021816083025655</v>
+        <v>0.2001307733999838</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7293478755625316</v>
+        <v>1.668316867349802</v>
       </c>
       <c r="G4">
-        <v>0.4568211772110615</v>
+        <v>0.9766533506422093</v>
       </c>
       <c r="H4">
-        <v>0.4105840380704606</v>
+        <v>1.028006955142949</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1075159570631126</v>
+        <v>0.2723060814417337</v>
       </c>
       <c r="K4">
-        <v>0.642114096761091</v>
+        <v>0.206187700513496</v>
       </c>
       <c r="L4">
-        <v>0.1514424239628909</v>
+        <v>0.3000238292334458</v>
       </c>
       <c r="M4">
-        <v>0.1689972447113881</v>
+        <v>0.1786061342751992</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.773294740322257</v>
+        <v>4.058182405032895</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7256303921857068</v>
+        <v>0.4790135267736844</v>
       </c>
       <c r="C5">
-        <v>0.1720096440141141</v>
+        <v>0.2901834899364921</v>
       </c>
       <c r="D5">
-        <v>0.09995095777809127</v>
+        <v>0.1997771561068475</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7294722143352459</v>
+        <v>1.671173039138402</v>
       </c>
       <c r="G5">
-        <v>0.4577408905943088</v>
+        <v>0.9787544865351805</v>
       </c>
       <c r="H5">
-        <v>0.4125883229699241</v>
+        <v>1.03001447093061</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1082801939321865</v>
+        <v>0.2728293615336348</v>
       </c>
       <c r="K5">
-        <v>0.6171550704990381</v>
+        <v>0.198310821415518</v>
       </c>
       <c r="L5">
-        <v>0.1481066914851326</v>
+        <v>0.2994898011521201</v>
       </c>
       <c r="M5">
-        <v>0.1626731885921906</v>
+        <v>0.1769672310893959</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.779344786529563</v>
+        <v>4.066770503190369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7204905609652315</v>
+        <v>0.4775420730959183</v>
       </c>
       <c r="C6">
-        <v>0.1721005140065905</v>
+        <v>0.2902305827276273</v>
       </c>
       <c r="D6">
-        <v>0.09958172315440095</v>
+        <v>0.1997194868615253</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.729509458043907</v>
+        <v>1.671657991749392</v>
       </c>
       <c r="G6">
-        <v>0.4579061904765638</v>
+        <v>0.9791107056769732</v>
       </c>
       <c r="H6">
-        <v>0.4129290493384516</v>
+        <v>1.030353160051995</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1084086758737879</v>
+        <v>0.2729173723524259</v>
       </c>
       <c r="K6">
-        <v>0.6130091483097146</v>
+        <v>0.1970022728861096</v>
       </c>
       <c r="L6">
-        <v>0.1475545469859085</v>
+        <v>0.2994026640237095</v>
       </c>
       <c r="M6">
-        <v>0.16162391075936</v>
+        <v>0.1766959865760143</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.780392498805156</v>
+        <v>4.068223133729504</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7561724487599975</v>
+        <v>0.4877661593318123</v>
       </c>
       <c r="C7">
-        <v>0.1714772945043599</v>
+        <v>0.2899080830663152</v>
       </c>
       <c r="D7">
-        <v>0.1021514464571283</v>
+        <v>0.2001259341478629</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7293484344309249</v>
+        <v>1.66835467034646</v>
       </c>
       <c r="G7">
-        <v>0.4568327327293886</v>
+        <v>0.9766811961360631</v>
       </c>
       <c r="H7">
-        <v>0.4106105358833716</v>
+        <v>1.028033671111196</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1075261576148936</v>
+        <v>0.2723130634768882</v>
       </c>
       <c r="K7">
-        <v>0.6417775873544826</v>
+        <v>0.2060815106553093</v>
       </c>
       <c r="L7">
-        <v>0.1513973187906075</v>
+        <v>0.3000165241256028</v>
       </c>
       <c r="M7">
-        <v>0.1689118996734145</v>
+        <v>0.1785839716173925</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.77337342973162</v>
+        <v>4.058296445248459</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9138297626689678</v>
+        <v>0.5331398996016787</v>
       </c>
       <c r="C8">
-        <v>0.1689143099316617</v>
+        <v>0.2885929904168414</v>
       </c>
       <c r="D8">
-        <v>0.1136660613987814</v>
+        <v>0.2020713332902346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7311094072383995</v>
+        <v>1.655329845529948</v>
       </c>
       <c r="G8">
-        <v>0.453975123432464</v>
+        <v>0.9670249127210582</v>
       </c>
       <c r="H8">
-        <v>0.4015518930980591</v>
+        <v>1.018574092006567</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1038640958492678</v>
+        <v>0.2698090720383792</v>
       </c>
       <c r="K8">
-        <v>0.7685478439050968</v>
+        <v>0.246055422086414</v>
       </c>
       <c r="L8">
-        <v>0.1686192922478398</v>
+        <v>0.3029480693546205</v>
       </c>
       <c r="M8">
-        <v>0.2012054461074513</v>
+        <v>0.1870440828016164</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.748818193747596</v>
+        <v>4.018353712961527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.224310574204679</v>
+        <v>0.6229989431832905</v>
       </c>
       <c r="C9">
-        <v>0.1645724506761752</v>
+        <v>0.2864000069668577</v>
       </c>
       <c r="D9">
-        <v>0.1369365976702568</v>
+        <v>0.206426747585823</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7440459576203651</v>
+        <v>1.635352854350998</v>
       </c>
       <c r="G9">
-        <v>0.4556384259357671</v>
+        <v>0.9519115287446454</v>
       </c>
       <c r="H9">
-        <v>0.3882228657739901</v>
+        <v>1.002804987931206</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09754276545631235</v>
+        <v>0.2654816495926422</v>
       </c>
       <c r="K9">
-        <v>1.016915496301891</v>
+        <v>0.3240862564109648</v>
       </c>
       <c r="L9">
-        <v>0.2034477385464797</v>
+        <v>0.3094900807662029</v>
       </c>
       <c r="M9">
-        <v>0.2651492604153738</v>
+        <v>0.2040878089891258</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.725284234298243</v>
+        <v>3.953882235886425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.453849139183575</v>
+        <v>0.6895261261655889</v>
       </c>
       <c r="C10">
-        <v>0.1618110514267954</v>
+        <v>0.2850219652229171</v>
       </c>
       <c r="D10">
-        <v>0.1545178274193262</v>
+        <v>0.20995213156462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7599304588251385</v>
+        <v>1.624056833362147</v>
       </c>
       <c r="G10">
-        <v>0.4618010475692529</v>
+        <v>0.9431351053535764</v>
       </c>
       <c r="H10">
-        <v>0.3813534669912997</v>
+        <v>0.99290820832978</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09344723026537238</v>
+        <v>0.2626558749904859</v>
       </c>
       <c r="K10">
-        <v>1.199693535263776</v>
+        <v>0.3811761331309071</v>
       </c>
       <c r="L10">
-        <v>0.2297883616663654</v>
+        <v>0.3147746027571543</v>
       </c>
       <c r="M10">
-        <v>0.3126484583823625</v>
+        <v>0.2168794590789673</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.724545302557061</v>
+        <v>3.914942282056245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.558731664247404</v>
+        <v>0.7198954785399962</v>
       </c>
       <c r="C11">
-        <v>0.1606505955305551</v>
+        <v>0.2844452401243984</v>
       </c>
       <c r="D11">
-        <v>0.1626360844931298</v>
+        <v>0.2116257660260743</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7686823060272019</v>
+        <v>1.619649814029437</v>
       </c>
       <c r="G11">
-        <v>0.4657970092310393</v>
+        <v>0.9396472590771907</v>
       </c>
       <c r="H11">
-        <v>0.3789147852278205</v>
+        <v>0.9887712115113487</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09170892959356713</v>
+        <v>0.2614467583220943</v>
       </c>
       <c r="K11">
-        <v>1.283015461557852</v>
+        <v>0.4070916649524463</v>
       </c>
       <c r="L11">
-        <v>0.2419602744332963</v>
+        <v>0.3172813695602912</v>
       </c>
       <c r="M11">
-        <v>0.3344041248359488</v>
+        <v>0.2227558966981533</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.728164979729002</v>
+        <v>3.899053281728101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.598527526496724</v>
+        <v>0.7314101361463941</v>
       </c>
       <c r="C12">
-        <v>0.1602251706792615</v>
+        <v>0.2842340261781757</v>
       </c>
       <c r="D12">
-        <v>0.1657288580972391</v>
+        <v>0.2122695028664339</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7722282059988075</v>
+        <v>1.618085994503573</v>
       </c>
       <c r="G12">
-        <v>0.4674922604404514</v>
+        <v>0.9383990111099649</v>
       </c>
       <c r="H12">
-        <v>0.3780945928062351</v>
+        <v>0.9872570313326605</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09106913523808302</v>
+        <v>0.2609998476911279</v>
       </c>
       <c r="K12">
-        <v>1.314601579216117</v>
+        <v>0.4168968303930285</v>
       </c>
       <c r="L12">
-        <v>0.2465989082553222</v>
+        <v>0.3182452922550283</v>
       </c>
       <c r="M12">
-        <v>0.3426666583329521</v>
+        <v>0.2249892676798382</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.730136598015378</v>
+        <v>3.893298632722889</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.589953050544665</v>
+        <v>0.7289296185216187</v>
       </c>
       <c r="C13">
-        <v>0.1603161660845487</v>
+        <v>0.2842791960936921</v>
       </c>
       <c r="D13">
-        <v>0.1650619276664713</v>
+        <v>0.2121304206776671</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7714540207466953</v>
+        <v>1.618418122955433</v>
       </c>
       <c r="G13">
-        <v>0.4671188849434031</v>
+        <v>0.9386646187120817</v>
       </c>
       <c r="H13">
-        <v>0.3782665660443456</v>
+        <v>0.9875808075717316</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09120609669484203</v>
+        <v>0.2610956109918696</v>
       </c>
       <c r="K13">
-        <v>1.307797290151541</v>
+        <v>0.4147854991877011</v>
       </c>
       <c r="L13">
-        <v>0.245598552382333</v>
+        <v>0.3180370439519606</v>
       </c>
       <c r="M13">
-        <v>0.340886053177428</v>
+        <v>0.2245079141064394</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.729684716663655</v>
+        <v>3.894526343374793</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.562004034184469</v>
+        <v>0.7208425113073815</v>
       </c>
       <c r="C14">
-        <v>0.1606153132112809</v>
+        <v>0.2844277197280789</v>
       </c>
       <c r="D14">
-        <v>0.1628901493708952</v>
+        <v>0.211678527368619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7689693111073765</v>
+        <v>1.619519053867862</v>
       </c>
       <c r="G14">
-        <v>0.4659327667863096</v>
+        <v>0.9395431116907957</v>
       </c>
       <c r="H14">
-        <v>0.3788452101787243</v>
+        <v>0.9886455891212051</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09165592023329339</v>
+        <v>0.261409771275547</v>
       </c>
       <c r="K14">
-        <v>1.28561333875345</v>
+        <v>0.4078985151857069</v>
       </c>
       <c r="L14">
-        <v>0.2423412956965336</v>
+        <v>0.3173603788463595</v>
       </c>
       <c r="M14">
-        <v>0.3350833877713555</v>
+        <v>0.2229394762779506</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.728314951793607</v>
+        <v>3.898574590488067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.544895140381641</v>
+        <v>0.7158907826549239</v>
       </c>
       <c r="C15">
-        <v>0.1608003822635666</v>
+        <v>0.284519628740135</v>
       </c>
       <c r="D15">
-        <v>0.1615623284140213</v>
+        <v>0.2114030252022019</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7674779162551175</v>
+        <v>1.620207077603496</v>
       </c>
       <c r="G15">
-        <v>0.4652302706026745</v>
+        <v>0.9400906576561709</v>
       </c>
       <c r="H15">
-        <v>0.3792132383892834</v>
+        <v>0.9893046213289551</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0919338704032171</v>
+        <v>0.2616036296051423</v>
       </c>
       <c r="K15">
-        <v>1.27202971323365</v>
+        <v>0.4036789164550498</v>
       </c>
       <c r="L15">
-        <v>0.2403500262103648</v>
+        <v>0.3169478081348984</v>
       </c>
       <c r="M15">
-        <v>0.3315323183883265</v>
+        <v>0.2219798115449549</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.727555174878063</v>
+        <v>3.901088393385777</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.447005200062051</v>
+        <v>0.6875434806246687</v>
       </c>
       <c r="C16">
-        <v>0.1618888371222624</v>
+        <v>0.285060661976992</v>
       </c>
       <c r="D16">
-        <v>0.1539898089179985</v>
+        <v>0.2098441551763131</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7593902486348583</v>
+        <v>1.624359548686989</v>
       </c>
       <c r="G16">
-        <v>0.4615647892821215</v>
+        <v>0.9433731949310555</v>
       </c>
       <c r="H16">
-        <v>0.3815270366296062</v>
+        <v>0.9931859098089006</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09356338690255939</v>
+        <v>0.2627364278997426</v>
       </c>
       <c r="K16">
-        <v>1.194252509055161</v>
+        <v>0.3794813367191807</v>
       </c>
       <c r="L16">
-        <v>0.2289968915411151</v>
+        <v>0.3146128382485216</v>
       </c>
       <c r="M16">
-        <v>0.3112298925180923</v>
+        <v>0.2164965616087002</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.724391048093537</v>
+        <v>3.916017366694234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.387080343686051</v>
+        <v>0.6701798784419282</v>
       </c>
       <c r="C17">
-        <v>0.1625812583021187</v>
+        <v>0.285405390418866</v>
       </c>
       <c r="D17">
-        <v>0.1493760295328173</v>
+        <v>0.2089056853891549</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7548281019345566</v>
+        <v>1.627094206982036</v>
       </c>
       <c r="G17">
-        <v>0.459628906724987</v>
+        <v>0.9455161379956465</v>
       </c>
       <c r="H17">
-        <v>0.3831254277186247</v>
+        <v>0.9956604007987266</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09459536174989402</v>
+        <v>0.2634509001346981</v>
       </c>
       <c r="K17">
-        <v>1.146589612668691</v>
+        <v>0.3646224181659647</v>
       </c>
       <c r="L17">
-        <v>0.222082120491919</v>
+        <v>0.3132066571302374</v>
       </c>
       <c r="M17">
-        <v>0.2988148964593051</v>
+        <v>0.2131473592034112</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.723485365230204</v>
+        <v>3.925643044955791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.352656062987336</v>
+        <v>0.6602027984388883</v>
       </c>
       <c r="C18">
-        <v>0.1629885142732164</v>
+        <v>0.2856083916688377</v>
       </c>
       <c r="D18">
-        <v>0.1467335659768452</v>
+        <v>0.2083724887257858</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7523469205519788</v>
+        <v>1.628735982261027</v>
       </c>
       <c r="G18">
-        <v>0.458627017218376</v>
+        <v>0.9467961990118923</v>
       </c>
       <c r="H18">
-        <v>0.384109080704846</v>
+        <v>0.9971180326523736</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09520063838674275</v>
+        <v>0.2638690326979738</v>
       </c>
       <c r="K18">
-        <v>1.119191116607027</v>
+        <v>0.3560708248620585</v>
       </c>
       <c r="L18">
-        <v>0.2181226204947677</v>
+        <v>0.3124075431689874</v>
       </c>
       <c r="M18">
-        <v>0.2916878723683496</v>
+        <v>0.2112264043453607</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.723334749032503</v>
+        <v>3.931351271762736</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341007599858671</v>
+        <v>0.6568264724272126</v>
       </c>
       <c r="C19">
-        <v>0.1631279414167466</v>
+        <v>0.2856779365085274</v>
       </c>
       <c r="D19">
-        <v>0.145840770504833</v>
+        <v>0.2081930913451657</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7515310046246526</v>
+        <v>1.629303693494663</v>
       </c>
       <c r="G19">
-        <v>0.4583066463221499</v>
+        <v>0.9472377643993681</v>
       </c>
       <c r="H19">
-        <v>0.3844530366842775</v>
+        <v>0.9976174675948855</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09540757085064477</v>
+        <v>0.2640118402612437</v>
       </c>
       <c r="K19">
-        <v>1.109916939054301</v>
+        <v>0.3531745379441134</v>
       </c>
       <c r="L19">
-        <v>0.2167849771940524</v>
+        <v>0.3121386438337765</v>
       </c>
       <c r="M19">
-        <v>0.2892770628846932</v>
+        <v>0.210576937727069</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.723346407448247</v>
+        <v>3.93331349249614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.393454918815053</v>
+        <v>0.6720272336774826</v>
       </c>
       <c r="C20">
-        <v>0.1625066163126547</v>
+        <v>0.2853682049588784</v>
       </c>
       <c r="D20">
-        <v>0.1498660000542316</v>
+        <v>0.2090049060665393</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7552988792693753</v>
+        <v>1.626795971229853</v>
       </c>
       <c r="G20">
-        <v>0.4598233621109955</v>
+        <v>0.9452831025630744</v>
       </c>
       <c r="H20">
-        <v>0.3829485889274267</v>
+        <v>0.9953934304857768</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09448429044923223</v>
+        <v>0.2633740996774865</v>
       </c>
       <c r="K20">
-        <v>1.151661698340916</v>
+        <v>0.3662047112391349</v>
       </c>
       <c r="L20">
-        <v>0.2228163632878335</v>
+        <v>0.3133553460971541</v>
       </c>
       <c r="M20">
-        <v>0.3001350505423872</v>
+        <v>0.2135033280285512</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.723543224911822</v>
+        <v>3.924600597198975</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.570211087637205</v>
+        <v>0.7232175048944214</v>
       </c>
       <c r="C21">
-        <v>0.1605270640269296</v>
+        <v>0.2843839001509707</v>
       </c>
       <c r="D21">
-        <v>0.1635275391591762</v>
+        <v>0.2118109895547917</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.769692738489951</v>
+        <v>1.619192834910123</v>
       </c>
       <c r="G21">
-        <v>0.4662761296891205</v>
+        <v>0.9392831090252116</v>
       </c>
       <c r="H21">
-        <v>0.3786724072017478</v>
+        <v>0.9883314152715599</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09152329080662902</v>
+        <v>0.2613171976303157</v>
       </c>
       <c r="K21">
-        <v>1.292128310213087</v>
+        <v>0.4099216242296109</v>
       </c>
       <c r="L21">
-        <v>0.2432972153406325</v>
+        <v>0.3175587347525521</v>
       </c>
       <c r="M21">
-        <v>0.3367870926336352</v>
+        <v>0.2233999462373504</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.7287007106207</v>
+        <v>3.897378409013214</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.686199015936523</v>
+        <v>0.756757133903136</v>
       </c>
       <c r="C22">
-        <v>0.159315126920724</v>
+        <v>0.2837824318054771</v>
       </c>
       <c r="D22">
-        <v>0.1725649909491977</v>
+        <v>0.2137029871204845</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7804571300959537</v>
+        <v>1.614835816949252</v>
       </c>
       <c r="G22">
-        <v>0.4715599919906879</v>
+        <v>0.9357844730639897</v>
       </c>
       <c r="H22">
-        <v>0.3764820328022296</v>
+        <v>0.9840214285232349</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08969598185620242</v>
+        <v>0.2600367406710866</v>
       </c>
       <c r="K22">
-        <v>1.384133515472598</v>
+        <v>0.4384434327694748</v>
       </c>
       <c r="L22">
-        <v>0.2568550684029702</v>
+        <v>0.3203913127858584</v>
       </c>
       <c r="M22">
-        <v>0.36088345420427</v>
+        <v>0.229915043619414</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.735590392925758</v>
+        <v>3.881115145715427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.624246989311104</v>
+        <v>0.7388489870056958</v>
       </c>
       <c r="C23">
-        <v>0.1599543879010241</v>
+        <v>0.2840996298593836</v>
       </c>
       <c r="D23">
-        <v>0.1677311433793989</v>
+        <v>0.2126879085242024</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7745835175994316</v>
+        <v>1.617105294327665</v>
       </c>
       <c r="G23">
-        <v>0.4686386357440142</v>
+        <v>0.937613095282714</v>
       </c>
       <c r="H23">
-        <v>0.3775941826090019</v>
+        <v>0.9862938306049216</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09066120102009734</v>
+        <v>0.260714309939523</v>
       </c>
       <c r="K23">
-        <v>1.335007070398802</v>
+        <v>0.4232255488001613</v>
       </c>
       <c r="L23">
-        <v>0.2496024621046615</v>
+        <v>0.3188717360886955</v>
       </c>
       <c r="M23">
-        <v>0.3480087774713496</v>
+        <v>0.2264335613130015</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.731580137681789</v>
+        <v>3.88965542808333</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.390572889236097</v>
+        <v>0.6711920272292957</v>
       </c>
       <c r="C24">
-        <v>0.1625403334006492</v>
+        <v>0.2853850015134753</v>
       </c>
       <c r="D24">
-        <v>0.1496444531410219</v>
+        <v>0.2089600286369944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7550856005295827</v>
+        <v>1.626930586852495</v>
       </c>
       <c r="G24">
-        <v>0.459735103649308</v>
+        <v>0.9453883081935501</v>
       </c>
       <c r="H24">
-        <v>0.3830283365118063</v>
+        <v>0.9955140186911677</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09453446850648639</v>
+        <v>0.2634087981961279</v>
       </c>
       <c r="K24">
-        <v>1.149368598039388</v>
+        <v>0.3654893845406093</v>
       </c>
       <c r="L24">
-        <v>0.2224843627748925</v>
+        <v>0.3132880947814414</v>
       </c>
       <c r="M24">
-        <v>0.2995381763190963</v>
+        <v>0.2133423803492391</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.723515916258947</v>
+        <v>3.92507134489091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140114135238406</v>
+        <v>0.5985984001499105</v>
       </c>
       <c r="C25">
-        <v>0.1656726538772588</v>
+        <v>0.2869521730433462</v>
       </c>
       <c r="D25">
-        <v>0.1305610396830161</v>
+        <v>0.2051910468296967</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7394711676457604</v>
+        <v>1.64016259217842</v>
       </c>
       <c r="G25">
-        <v>0.4543594690239487</v>
+        <v>0.9555911726262494</v>
       </c>
       <c r="H25">
-        <v>0.3913319860304441</v>
+        <v>1.006773901913739</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09915833808777919</v>
+        <v>0.2665901121760132</v>
       </c>
       <c r="K25">
-        <v>0.9497060575901628</v>
+        <v>0.3030173598945112</v>
       </c>
       <c r="L25">
-        <v>0.1939018379742237</v>
+        <v>0.3076359370707777</v>
       </c>
       <c r="M25">
-        <v>0.2477704442793609</v>
+        <v>0.1994291885112993</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.728861017660776</v>
+        <v>3.969842136919127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5454946546819031</v>
+        <v>0.9566141085984441</v>
       </c>
       <c r="C2">
-        <v>0.2882628619767331</v>
+        <v>0.1682657676925707</v>
       </c>
       <c r="D2">
-        <v>0.2026351672010023</v>
+        <v>0.1168304308383057</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.652177775467138</v>
+        <v>0.7322072129633739</v>
       </c>
       <c r="G2">
-        <v>0.9646673426281538</v>
+        <v>0.4536746717458442</v>
       </c>
       <c r="H2">
-        <v>1.016199478200917</v>
+        <v>0.3993898556435482</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2691701291591979</v>
+        <v>0.1029291936877481</v>
       </c>
       <c r="K2">
-        <v>0.2568629249896333</v>
+        <v>0.8028653843310281</v>
       </c>
       <c r="L2">
-        <v>0.3037962595540051</v>
+        <v>0.1733532567919269</v>
       </c>
       <c r="M2">
-        <v>0.1893672929400942</v>
+        <v>0.2099920417356707</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.008469675755563</v>
+        <v>1.743776681766931</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5097306866138069</v>
+        <v>0.8326131617989176</v>
       </c>
       <c r="C3">
-        <v>0.2892496447514041</v>
+        <v>0.1701982928807233</v>
       </c>
       <c r="D3">
-        <v>0.2010410331994308</v>
+        <v>0.107703751468371</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.661741970935012</v>
+        <v>0.729727123647308</v>
       </c>
       <c r="G3">
-        <v>0.9717949163800839</v>
+        <v>0.455084031426594</v>
       </c>
       <c r="H3">
-        <v>1.023297572375746</v>
+        <v>0.4059909798680152</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2710674796308936</v>
+        <v>0.1057052251007278</v>
       </c>
       <c r="K3">
-        <v>0.225492109653743</v>
+        <v>0.7033078328120865</v>
       </c>
       <c r="L3">
-        <v>0.3013966425616843</v>
+        <v>0.1597009758942818</v>
       </c>
       <c r="M3">
-        <v>0.1826640379586415</v>
+        <v>0.1845518988394019</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.038187385106966</v>
+        <v>1.760225617576253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4878859361623711</v>
+        <v>0.7565900534408456</v>
       </c>
       <c r="C4">
-        <v>0.2899043686539642</v>
+        <v>0.1714701039751318</v>
       </c>
       <c r="D4">
-        <v>0.2001307733999838</v>
+        <v>0.1021816083027289</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.668316867349802</v>
+        <v>0.7293478755625387</v>
       </c>
       <c r="G4">
-        <v>0.9766533506422093</v>
+        <v>0.4568211772110686</v>
       </c>
       <c r="H4">
-        <v>1.028006955142949</v>
+        <v>0.4105840380703398</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2723060814417337</v>
+        <v>0.1075159570630326</v>
       </c>
       <c r="K4">
-        <v>0.206187700513496</v>
+        <v>0.6421140967610341</v>
       </c>
       <c r="L4">
-        <v>0.3000238292334458</v>
+        <v>0.1514424239628411</v>
       </c>
       <c r="M4">
-        <v>0.1786061342751992</v>
+        <v>0.1689972447113703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.058182405032895</v>
+        <v>1.773294740322186</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4790135267736844</v>
+        <v>0.7256303921856784</v>
       </c>
       <c r="C5">
-        <v>0.2901834899364921</v>
+        <v>0.1720096440141141</v>
       </c>
       <c r="D5">
-        <v>0.1997771561068475</v>
+        <v>0.09995095777808416</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.671173039138402</v>
+        <v>0.7294722143352388</v>
       </c>
       <c r="G5">
-        <v>0.9787544865351805</v>
+        <v>0.4577408905944296</v>
       </c>
       <c r="H5">
-        <v>1.03001447093061</v>
+        <v>0.4125883229699241</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2728293615336348</v>
+        <v>0.1082801939322664</v>
       </c>
       <c r="K5">
-        <v>0.198310821415518</v>
+        <v>0.6171550704990381</v>
       </c>
       <c r="L5">
-        <v>0.2994898011521201</v>
+        <v>0.1481066914850686</v>
       </c>
       <c r="M5">
-        <v>0.1769672310893959</v>
+        <v>0.1626731885921906</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.066770503190369</v>
+        <v>1.779344786529563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4775420730959183</v>
+        <v>0.7204905609652315</v>
       </c>
       <c r="C6">
-        <v>0.2902305827276273</v>
+        <v>0.1721005140066616</v>
       </c>
       <c r="D6">
-        <v>0.1997194868615253</v>
+        <v>0.09958172315437963</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.671657991749392</v>
+        <v>0.7295094580438928</v>
       </c>
       <c r="G6">
-        <v>0.9791107056769732</v>
+        <v>0.4579061904765496</v>
       </c>
       <c r="H6">
-        <v>1.030353160051995</v>
+        <v>0.4129290493385724</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2729173723524259</v>
+        <v>0.1084086758737879</v>
       </c>
       <c r="K6">
-        <v>0.1970022728861096</v>
+        <v>0.6130091483097715</v>
       </c>
       <c r="L6">
-        <v>0.2994026640237095</v>
+        <v>0.1475545469859085</v>
       </c>
       <c r="M6">
-        <v>0.1766959865760143</v>
+        <v>0.1616239107593636</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.068223133729504</v>
+        <v>1.780392498805185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4877661593318123</v>
+        <v>0.7561724487600543</v>
       </c>
       <c r="C7">
-        <v>0.2899080830663152</v>
+        <v>0.1714772945045411</v>
       </c>
       <c r="D7">
-        <v>0.2001259341478629</v>
+        <v>0.1021514464570998</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.66835467034646</v>
+        <v>0.7293484344309178</v>
       </c>
       <c r="G7">
-        <v>0.9766811961360631</v>
+        <v>0.4568327327293815</v>
       </c>
       <c r="H7">
-        <v>1.028033671111196</v>
+        <v>0.4106105358833716</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2723130634768882</v>
+        <v>0.1075261576149114</v>
       </c>
       <c r="K7">
-        <v>0.2060815106553093</v>
+        <v>0.6417775873544684</v>
       </c>
       <c r="L7">
-        <v>0.3000165241256028</v>
+        <v>0.1513973187906714</v>
       </c>
       <c r="M7">
-        <v>0.1785839716173925</v>
+        <v>0.1689118996734287</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.058296445248459</v>
+        <v>1.773373429731606</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5331398996016787</v>
+        <v>0.9138297626689678</v>
       </c>
       <c r="C8">
-        <v>0.2885929904168414</v>
+        <v>0.1689143099319104</v>
       </c>
       <c r="D8">
-        <v>0.2020713332902346</v>
+        <v>0.113666061398753</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.655329845529948</v>
+        <v>0.7311094072383995</v>
       </c>
       <c r="G8">
-        <v>0.9670249127210582</v>
+        <v>0.4539751234324427</v>
       </c>
       <c r="H8">
-        <v>1.018574092006567</v>
+        <v>0.4015518930980591</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2698090720383792</v>
+        <v>0.1038640958492429</v>
       </c>
       <c r="K8">
-        <v>0.246055422086414</v>
+        <v>0.7685478439051252</v>
       </c>
       <c r="L8">
-        <v>0.3029480693546205</v>
+        <v>0.1686192922477758</v>
       </c>
       <c r="M8">
-        <v>0.1870440828016164</v>
+        <v>0.2012054461074442</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.018353712961527</v>
+        <v>1.748818193747582</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6229989431832905</v>
+        <v>1.224310574204765</v>
       </c>
       <c r="C9">
-        <v>0.2864000069668577</v>
+        <v>0.1645724506760118</v>
       </c>
       <c r="D9">
-        <v>0.206426747585823</v>
+        <v>0.1369365976702568</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.635352854350998</v>
+        <v>0.7440459576203864</v>
       </c>
       <c r="G9">
-        <v>0.9519115287446454</v>
+        <v>0.4556384259357316</v>
       </c>
       <c r="H9">
-        <v>1.002804987931206</v>
+        <v>0.3882228657741109</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2654816495926422</v>
+        <v>0.09754276545638341</v>
       </c>
       <c r="K9">
-        <v>0.3240862564109648</v>
+        <v>1.016915496302062</v>
       </c>
       <c r="L9">
-        <v>0.3094900807662029</v>
+        <v>0.2034477385464797</v>
       </c>
       <c r="M9">
-        <v>0.2040878089891258</v>
+        <v>0.2651492604153844</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.953882235886425</v>
+        <v>1.725284234298329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6895261261655889</v>
+        <v>1.453849139183433</v>
       </c>
       <c r="C10">
-        <v>0.2850219652229171</v>
+        <v>0.1618110514269517</v>
       </c>
       <c r="D10">
-        <v>0.20995213156462</v>
+        <v>0.1545178274192125</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.624056833362147</v>
+        <v>0.7599304588251385</v>
       </c>
       <c r="G10">
-        <v>0.9431351053535764</v>
+        <v>0.4618010475692387</v>
       </c>
       <c r="H10">
-        <v>0.99290820832978</v>
+        <v>0.3813534669912997</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2626558749904859</v>
+        <v>0.09344723026538837</v>
       </c>
       <c r="K10">
-        <v>0.3811761331309071</v>
+        <v>1.199693535263606</v>
       </c>
       <c r="L10">
-        <v>0.3147746027571543</v>
+        <v>0.2297883616663938</v>
       </c>
       <c r="M10">
-        <v>0.2168794590789673</v>
+        <v>0.3126484583823697</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.914942282056245</v>
+        <v>1.724545302557004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7198954785399962</v>
+        <v>1.558731664247318</v>
       </c>
       <c r="C11">
-        <v>0.2844452401243984</v>
+        <v>0.1606505955302353</v>
       </c>
       <c r="D11">
-        <v>0.2116257660260743</v>
+        <v>0.1626360844928882</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.619649814029437</v>
+        <v>0.768682306027209</v>
       </c>
       <c r="G11">
-        <v>0.9396472590771907</v>
+        <v>0.4657970092310393</v>
       </c>
       <c r="H11">
-        <v>0.9887712115113487</v>
+        <v>0.3789147852278347</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2614467583220943</v>
+        <v>0.09170892959360089</v>
       </c>
       <c r="K11">
-        <v>0.4070916649524463</v>
+        <v>1.283015461557909</v>
       </c>
       <c r="L11">
-        <v>0.3172813695602912</v>
+        <v>0.2419602744332678</v>
       </c>
       <c r="M11">
-        <v>0.2227558966981533</v>
+        <v>0.334404124835963</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.899053281728101</v>
+        <v>1.728164979729058</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7314101361463941</v>
+        <v>1.598527526496582</v>
       </c>
       <c r="C12">
-        <v>0.2842340261781757</v>
+        <v>0.1602251706790341</v>
       </c>
       <c r="D12">
-        <v>0.2122695028664339</v>
+        <v>0.165728858097367</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.618085994503573</v>
+        <v>0.7722282059988075</v>
       </c>
       <c r="G12">
-        <v>0.9383990111099649</v>
+        <v>0.4674922604404088</v>
       </c>
       <c r="H12">
-        <v>0.9872570313326605</v>
+        <v>0.3780945928062209</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2609998476911279</v>
+        <v>0.09106913523815052</v>
       </c>
       <c r="K12">
-        <v>0.4168968303930285</v>
+        <v>1.314601579216202</v>
       </c>
       <c r="L12">
-        <v>0.3182452922550283</v>
+        <v>0.2465989082553506</v>
       </c>
       <c r="M12">
-        <v>0.2249892676798382</v>
+        <v>0.3426666583329521</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.893298632722889</v>
+        <v>1.730136598015434</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7289296185216187</v>
+        <v>1.589953050544665</v>
       </c>
       <c r="C13">
-        <v>0.2842791960936921</v>
+        <v>0.1603161660844634</v>
       </c>
       <c r="D13">
-        <v>0.2121304206776671</v>
+        <v>0.1650619276663576</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.618418122955433</v>
+        <v>0.7714540207466953</v>
       </c>
       <c r="G13">
-        <v>0.9386646187120817</v>
+        <v>0.4671188849434031</v>
       </c>
       <c r="H13">
-        <v>0.9875808075717316</v>
+        <v>0.3782665660442319</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2610956109918696</v>
+        <v>0.09120609669484914</v>
       </c>
       <c r="K13">
-        <v>0.4147854991877011</v>
+        <v>1.307797290151541</v>
       </c>
       <c r="L13">
-        <v>0.3180370439519606</v>
+        <v>0.2455985523822761</v>
       </c>
       <c r="M13">
-        <v>0.2245079141064394</v>
+        <v>0.340886053177428</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.894526343374793</v>
+        <v>1.729684716663627</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7208425113073815</v>
+        <v>1.562004034184355</v>
       </c>
       <c r="C14">
-        <v>0.2844277197280789</v>
+        <v>0.1606153132112098</v>
       </c>
       <c r="D14">
-        <v>0.211678527368619</v>
+        <v>0.1628901493708099</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.619519053867862</v>
+        <v>0.7689693111073623</v>
       </c>
       <c r="G14">
-        <v>0.9395431116907957</v>
+        <v>0.4659327667863806</v>
       </c>
       <c r="H14">
-        <v>0.9886455891212051</v>
+        <v>0.378845210178838</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.261409771275547</v>
+        <v>0.091655920233217</v>
       </c>
       <c r="K14">
-        <v>0.4078985151857069</v>
+        <v>1.28561333875345</v>
       </c>
       <c r="L14">
-        <v>0.3173603788463595</v>
+        <v>0.242341295696491</v>
       </c>
       <c r="M14">
-        <v>0.2229394762779506</v>
+        <v>0.3350833877713626</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.898574590488067</v>
+        <v>1.728314951793578</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7158907826549239</v>
+        <v>1.544895140381698</v>
       </c>
       <c r="C15">
-        <v>0.284519628740135</v>
+        <v>0.1608003822635027</v>
       </c>
       <c r="D15">
-        <v>0.2114030252022019</v>
+        <v>0.1615623284140355</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.620207077603496</v>
+        <v>0.7674779162551317</v>
       </c>
       <c r="G15">
-        <v>0.9400906576561709</v>
+        <v>0.4652302706026603</v>
       </c>
       <c r="H15">
-        <v>0.9893046213289551</v>
+        <v>0.3792132383892692</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2616036296051423</v>
+        <v>0.09193387040324019</v>
       </c>
       <c r="K15">
-        <v>0.4036789164550498</v>
+        <v>1.272029713233849</v>
       </c>
       <c r="L15">
-        <v>0.3169478081348984</v>
+        <v>0.2403500262104217</v>
       </c>
       <c r="M15">
-        <v>0.2219798115449549</v>
+        <v>0.3315323183883123</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.901088393385777</v>
+        <v>1.727555174878148</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6875434806246687</v>
+        <v>1.447005200061881</v>
       </c>
       <c r="C16">
-        <v>0.285060661976992</v>
+        <v>0.1618888371221914</v>
       </c>
       <c r="D16">
-        <v>0.2098441551763131</v>
+        <v>0.153989808918169</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.624359548686989</v>
+        <v>0.7593902486348654</v>
       </c>
       <c r="G16">
-        <v>0.9433731949310555</v>
+        <v>0.4615647892821357</v>
       </c>
       <c r="H16">
-        <v>0.9931859098089006</v>
+        <v>0.3815270366296062</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2627364278997426</v>
+        <v>0.0935633869026038</v>
       </c>
       <c r="K16">
-        <v>0.3794813367191807</v>
+        <v>1.194252509054962</v>
       </c>
       <c r="L16">
-        <v>0.3146128382485216</v>
+        <v>0.2289968915412146</v>
       </c>
       <c r="M16">
-        <v>0.2164965616087002</v>
+        <v>0.3112298925180923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.916017366694234</v>
+        <v>1.724391048093452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6701798784419282</v>
+        <v>1.387080343686335</v>
       </c>
       <c r="C17">
-        <v>0.285405390418866</v>
+        <v>0.1625812583026729</v>
       </c>
       <c r="D17">
-        <v>0.2089056853891549</v>
+        <v>0.1493760295328173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.627094206982036</v>
+        <v>0.7548281019345637</v>
       </c>
       <c r="G17">
-        <v>0.9455161379956465</v>
+        <v>0.459628906724987</v>
       </c>
       <c r="H17">
-        <v>0.9956604007987266</v>
+        <v>0.3831254277186389</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2634509001346981</v>
+        <v>0.0945953617498283</v>
       </c>
       <c r="K17">
-        <v>0.3646224181659647</v>
+        <v>1.146589612668635</v>
       </c>
       <c r="L17">
-        <v>0.3132066571302374</v>
+        <v>0.222082120491919</v>
       </c>
       <c r="M17">
-        <v>0.2131473592034112</v>
+        <v>0.298814896459298</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.925643044955791</v>
+        <v>1.723485365230289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6602027984388883</v>
+        <v>1.352656062987307</v>
       </c>
       <c r="C18">
-        <v>0.2856083916688377</v>
+        <v>0.1629885142729037</v>
       </c>
       <c r="D18">
-        <v>0.2083724887257858</v>
+        <v>0.1467335659769731</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.628735982261027</v>
+        <v>0.7523469205519717</v>
       </c>
       <c r="G18">
-        <v>0.9467961990118923</v>
+        <v>0.4586270172184328</v>
       </c>
       <c r="H18">
-        <v>0.9971180326523736</v>
+        <v>0.384109080704846</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2638690326979738</v>
+        <v>0.09520063838673742</v>
       </c>
       <c r="K18">
-        <v>0.3560708248620585</v>
+        <v>1.11919111660697</v>
       </c>
       <c r="L18">
-        <v>0.3124075431689874</v>
+        <v>0.218122620494853</v>
       </c>
       <c r="M18">
-        <v>0.2112264043453607</v>
+        <v>0.2916878723683496</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.931351271762736</v>
+        <v>1.723334749032432</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6568264724272126</v>
+        <v>1.341007599858671</v>
       </c>
       <c r="C19">
-        <v>0.2856779365085274</v>
+        <v>0.1631279414167466</v>
       </c>
       <c r="D19">
-        <v>0.2081930913451657</v>
+        <v>0.145840770504762</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.629303693494663</v>
+        <v>0.7515310046246455</v>
       </c>
       <c r="G19">
-        <v>0.9472377643993681</v>
+        <v>0.4583066463221428</v>
       </c>
       <c r="H19">
-        <v>0.9976174675948855</v>
+        <v>0.3844530366842704</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2640118402612437</v>
+        <v>0.09540757085069629</v>
       </c>
       <c r="K19">
-        <v>0.3531745379441134</v>
+        <v>1.10991693905433</v>
       </c>
       <c r="L19">
-        <v>0.3121386438337765</v>
+        <v>0.2167849771941803</v>
       </c>
       <c r="M19">
-        <v>0.210576937727069</v>
+        <v>0.2892770628846861</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.93331349249614</v>
+        <v>1.723346407448275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6720272336774826</v>
+        <v>1.393454918815053</v>
       </c>
       <c r="C20">
-        <v>0.2853682049588784</v>
+        <v>0.16250661631274</v>
       </c>
       <c r="D20">
-        <v>0.2090049060665393</v>
+        <v>0.1498660000542316</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.626795971229853</v>
+        <v>0.7552988792693967</v>
       </c>
       <c r="G20">
-        <v>0.9452831025630744</v>
+        <v>0.4598233621109529</v>
       </c>
       <c r="H20">
-        <v>0.9953934304857768</v>
+        <v>0.3829485889274196</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2633740996774865</v>
+        <v>0.0944842904491896</v>
       </c>
       <c r="K20">
-        <v>0.3662047112391349</v>
+        <v>1.151661698341002</v>
       </c>
       <c r="L20">
-        <v>0.3133553460971541</v>
+        <v>0.222816363287734</v>
       </c>
       <c r="M20">
-        <v>0.2135033280285512</v>
+        <v>0.3001350505424085</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.924600597198975</v>
+        <v>1.723543224911907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7232175048944214</v>
+        <v>1.570211087637261</v>
       </c>
       <c r="C21">
-        <v>0.2843839001509707</v>
+        <v>0.1605270640271712</v>
       </c>
       <c r="D21">
-        <v>0.2118109895547917</v>
+        <v>0.1635275391591478</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.619192834910123</v>
+        <v>0.769692738489951</v>
       </c>
       <c r="G21">
-        <v>0.9392831090252116</v>
+        <v>0.4662761296890778</v>
       </c>
       <c r="H21">
-        <v>0.9883314152715599</v>
+        <v>0.3786724072016341</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2613171976303157</v>
+        <v>0.09152329080661303</v>
       </c>
       <c r="K21">
-        <v>0.4099216242296109</v>
+        <v>1.292128310212888</v>
       </c>
       <c r="L21">
-        <v>0.3175587347525521</v>
+        <v>0.2432972153406752</v>
       </c>
       <c r="M21">
-        <v>0.2233999462373504</v>
+        <v>0.3367870926336352</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.897378409013214</v>
+        <v>1.7287007106207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.756757133903136</v>
+        <v>1.686199015936438</v>
       </c>
       <c r="C22">
-        <v>0.2837824318054771</v>
+        <v>0.1593151269204967</v>
       </c>
       <c r="D22">
-        <v>0.2137029871204845</v>
+        <v>0.172564990949212</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.614835816949252</v>
+        <v>0.7804571300959537</v>
       </c>
       <c r="G22">
-        <v>0.9357844730639897</v>
+        <v>0.4715599919906879</v>
       </c>
       <c r="H22">
-        <v>0.9840214285232349</v>
+        <v>0.3764820328022154</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2600367406710866</v>
+        <v>0.08969598185620598</v>
       </c>
       <c r="K22">
-        <v>0.4384434327694748</v>
+        <v>1.384133515472627</v>
       </c>
       <c r="L22">
-        <v>0.3203913127858584</v>
+        <v>0.2568550684029987</v>
       </c>
       <c r="M22">
-        <v>0.229915043619414</v>
+        <v>0.36088345420427</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.881115145715427</v>
+        <v>1.735590392925758</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7388489870056958</v>
+        <v>1.624246989311018</v>
       </c>
       <c r="C23">
-        <v>0.2840996298593836</v>
+        <v>0.1599543879012657</v>
       </c>
       <c r="D23">
-        <v>0.2126879085242024</v>
+        <v>0.1677311433794841</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.617105294327665</v>
+        <v>0.7745835175994316</v>
       </c>
       <c r="G23">
-        <v>0.937613095282714</v>
+        <v>0.468638635744</v>
       </c>
       <c r="H23">
-        <v>0.9862938306049216</v>
+        <v>0.3775941826090161</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.260714309939523</v>
+        <v>0.09066120102007424</v>
       </c>
       <c r="K23">
-        <v>0.4232255488001613</v>
+        <v>1.335007070398717</v>
       </c>
       <c r="L23">
-        <v>0.3188717360886955</v>
+        <v>0.2496024621047468</v>
       </c>
       <c r="M23">
-        <v>0.2264335613130015</v>
+        <v>0.3480087774713425</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.88965542808333</v>
+        <v>1.731580137681789</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6711920272292957</v>
+        <v>1.390572889236097</v>
       </c>
       <c r="C24">
-        <v>0.2853850015134753</v>
+        <v>0.1625403334006492</v>
       </c>
       <c r="D24">
-        <v>0.2089600286369944</v>
+        <v>0.1496444531410788</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.626930586852495</v>
+        <v>0.7550856005295259</v>
       </c>
       <c r="G24">
-        <v>0.9453883081935501</v>
+        <v>0.4597351036493578</v>
       </c>
       <c r="H24">
-        <v>0.9955140186911677</v>
+        <v>0.3830283365119058</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2634087981961279</v>
+        <v>0.09453446850644198</v>
       </c>
       <c r="K24">
-        <v>0.3654893845406093</v>
+        <v>1.149368598039416</v>
       </c>
       <c r="L24">
-        <v>0.3132880947814414</v>
+        <v>0.2224843627748214</v>
       </c>
       <c r="M24">
-        <v>0.2133423803492391</v>
+        <v>0.2995381763190892</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.92507134489091</v>
+        <v>1.723515916258918</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5985984001499105</v>
+        <v>1.140114135238406</v>
       </c>
       <c r="C25">
-        <v>0.2869521730433462</v>
+        <v>0.1656726538772659</v>
       </c>
       <c r="D25">
-        <v>0.2051910468296967</v>
+        <v>0.1305610396830161</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.64016259217842</v>
+        <v>0.7394711676457462</v>
       </c>
       <c r="G25">
-        <v>0.9555911726262494</v>
+        <v>0.4543594690238635</v>
       </c>
       <c r="H25">
-        <v>1.006773901913739</v>
+        <v>0.3913319860304441</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2665901121760132</v>
+        <v>0.09915833808775965</v>
       </c>
       <c r="K25">
-        <v>0.3030173598945112</v>
+        <v>0.9497060575903049</v>
       </c>
       <c r="L25">
-        <v>0.3076359370707777</v>
+        <v>0.19390183797411</v>
       </c>
       <c r="M25">
-        <v>0.1994291885112993</v>
+        <v>0.2477704442793645</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.969842136919127</v>
+        <v>1.728861017660776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9566141085984441</v>
+        <v>1.848398956735707</v>
       </c>
       <c r="C2">
-        <v>0.1682657676925707</v>
+        <v>0.56314664708853</v>
       </c>
       <c r="D2">
-        <v>0.1168304308383057</v>
+        <v>0.0722448931274684</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7322072129633739</v>
+        <v>0.2899546843195537</v>
       </c>
       <c r="G2">
-        <v>0.4536746717458442</v>
+        <v>0.186190050360068</v>
       </c>
       <c r="H2">
-        <v>0.3993898556435482</v>
+        <v>0.0004502859868789066</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006333851200350793</v>
       </c>
       <c r="J2">
-        <v>0.1029291936877481</v>
+        <v>0.1720338718281482</v>
       </c>
       <c r="K2">
-        <v>0.8028653843310281</v>
+        <v>0.1338406145384887</v>
       </c>
       <c r="L2">
-        <v>0.1733532567919269</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2099920417356707</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.743776681766931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.532734286566196</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7055761225239507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8326131617989176</v>
+        <v>1.622303599783805</v>
       </c>
       <c r="C3">
-        <v>0.1701982928807233</v>
+        <v>0.510277635952832</v>
       </c>
       <c r="D3">
-        <v>0.107703751468371</v>
+        <v>0.06333574968110156</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.729727123647308</v>
+        <v>0.26783394768497</v>
       </c>
       <c r="G3">
-        <v>0.455084031426594</v>
+        <v>0.172446110636983</v>
       </c>
       <c r="H3">
-        <v>0.4059909798680152</v>
+        <v>3.436688301139412E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004684840760269093</v>
       </c>
       <c r="J3">
-        <v>0.1057052251007278</v>
+        <v>0.1699821188802559</v>
       </c>
       <c r="K3">
-        <v>0.7033078328120865</v>
+        <v>0.1396669796029322</v>
       </c>
       <c r="L3">
-        <v>0.1597009758942818</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1845518988394019</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.760225617576253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.202110022056416</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6718627133943897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7565900534408456</v>
+        <v>1.482865400741304</v>
       </c>
       <c r="C4">
-        <v>0.1714701039751318</v>
+        <v>0.4779612770755932</v>
       </c>
       <c r="D4">
-        <v>0.1021816083027289</v>
+        <v>0.05787809178493575</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7293478755625387</v>
+        <v>0.254653503008349</v>
       </c>
       <c r="G4">
-        <v>0.4568211772110686</v>
+        <v>0.1643318123120707</v>
       </c>
       <c r="H4">
-        <v>0.4105840380703398</v>
+        <v>1.475985775867272E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003798510535816479</v>
       </c>
       <c r="J4">
-        <v>0.1075159570630326</v>
+        <v>0.1689615741181072</v>
       </c>
       <c r="K4">
-        <v>0.6421140967610341</v>
+        <v>0.1435159175785614</v>
       </c>
       <c r="L4">
-        <v>0.1514424239628411</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1689972447113703</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.773294740322186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.999712428680525</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6523440232339652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7256303921856784</v>
+        <v>1.42585394711935</v>
       </c>
       <c r="C5">
-        <v>0.1720096440141141</v>
+        <v>0.4656624264650588</v>
       </c>
       <c r="D5">
-        <v>0.09995095777808416</v>
+        <v>0.0557242807097893</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7294722143352388</v>
+        <v>0.2490201699504695</v>
       </c>
       <c r="G5">
-        <v>0.4577408905944296</v>
+        <v>0.1607662676486825</v>
       </c>
       <c r="H5">
-        <v>0.4125883229699241</v>
+        <v>6.194390602631827E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003520994750453088</v>
       </c>
       <c r="J5">
-        <v>0.1082801939322664</v>
+        <v>0.1684261246569108</v>
       </c>
       <c r="K5">
-        <v>0.6171550704990381</v>
+        <v>0.1449386077452921</v>
       </c>
       <c r="L5">
-        <v>0.1481066914850686</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1626731885921906</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.779344786529563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.917339128445136</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6435886802890991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7204905609652315</v>
+        <v>1.416335616683682</v>
       </c>
       <c r="C6">
-        <v>0.1721005140066616</v>
+        <v>0.4646497066696611</v>
       </c>
       <c r="D6">
-        <v>0.09958172315437963</v>
+        <v>0.05544960995550952</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7295094580438928</v>
+        <v>0.2476542629888527</v>
       </c>
       <c r="G6">
-        <v>0.4579061904765496</v>
+        <v>0.159769738024238</v>
       </c>
       <c r="H6">
-        <v>0.4129290493385724</v>
+        <v>7.306665446327187E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003550438706792391</v>
       </c>
       <c r="J6">
-        <v>0.1084086758737879</v>
+        <v>0.1681241130828397</v>
       </c>
       <c r="K6">
-        <v>0.6130091483097715</v>
+        <v>0.1449215484332615</v>
       </c>
       <c r="L6">
-        <v>0.1475545469859085</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1616239107593636</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.780392498805185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.903657144076647</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6408308261608795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7561724487600543</v>
+        <v>1.481982709078352</v>
       </c>
       <c r="C7">
-        <v>0.1714772945045411</v>
+        <v>0.4806098721740852</v>
       </c>
       <c r="D7">
-        <v>0.1021514464570998</v>
+        <v>0.05807578854344797</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7293484344309178</v>
+        <v>0.2533854044469308</v>
       </c>
       <c r="G7">
-        <v>0.4568327327293815</v>
+        <v>0.1631656037621312</v>
       </c>
       <c r="H7">
-        <v>0.4106105358833716</v>
+        <v>1.526568824372632E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003982053238839711</v>
       </c>
       <c r="J7">
-        <v>0.1075261576149114</v>
+        <v>0.1683632819931518</v>
       </c>
       <c r="K7">
-        <v>0.6417775873544684</v>
+        <v>0.1428337108178095</v>
       </c>
       <c r="L7">
-        <v>0.1513973187906714</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1689118996734287</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.773373429731606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.998574321159907</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6486173321926856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9138297626689678</v>
+        <v>1.770421908336658</v>
       </c>
       <c r="C8">
-        <v>0.1689143099319104</v>
+        <v>0.5486529245407326</v>
       </c>
       <c r="D8">
-        <v>0.113666061398753</v>
+        <v>0.06947281597859956</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7311094072383995</v>
+        <v>0.2806610733671278</v>
       </c>
       <c r="G8">
-        <v>0.4539751234324427</v>
+        <v>0.1798992618039748</v>
       </c>
       <c r="H8">
-        <v>0.4015518930980591</v>
+        <v>0.0002549410452381551</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005961321752703697</v>
       </c>
       <c r="J8">
-        <v>0.1038640958492429</v>
+        <v>0.1704965779075209</v>
       </c>
       <c r="K8">
-        <v>0.7685478439051252</v>
+        <v>0.1348737689662389</v>
       </c>
       <c r="L8">
-        <v>0.1686192922477758</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2012054461074442</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.748818193747582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.418547763914347</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6889251859901009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.224310574204765</v>
+        <v>2.331422011845461</v>
       </c>
       <c r="C9">
-        <v>0.1645724506760118</v>
+        <v>0.6783042081038104</v>
       </c>
       <c r="D9">
-        <v>0.1369365976702568</v>
+        <v>0.09153711660472652</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7440459576203864</v>
+        <v>0.3397875601309153</v>
       </c>
       <c r="G9">
-        <v>0.4556384259357316</v>
+        <v>0.2175733675441194</v>
       </c>
       <c r="H9">
-        <v>0.3882228657741109</v>
+        <v>0.002793544691612082</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01067603702362341</v>
       </c>
       <c r="J9">
-        <v>0.09754276545638341</v>
+        <v>0.1777517210714521</v>
       </c>
       <c r="K9">
-        <v>1.016915496302062</v>
+        <v>0.122793567785628</v>
       </c>
       <c r="L9">
-        <v>0.2034477385464797</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2651492604153844</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.725284234298329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.248895018409712</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7846445018053316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.453849139183433</v>
+        <v>2.796636459897002</v>
       </c>
       <c r="C10">
-        <v>0.1618110514269517</v>
+        <v>0.7908699715999603</v>
       </c>
       <c r="D10">
-        <v>0.1545178274192125</v>
+        <v>0.1091606818457649</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7599304588251385</v>
+        <v>0.3791660382359012</v>
       </c>
       <c r="G10">
-        <v>0.4618010475692387</v>
+        <v>0.2411790213353981</v>
       </c>
       <c r="H10">
-        <v>0.3813534669912997</v>
+        <v>0.005734506410938867</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01503041721388421</v>
       </c>
       <c r="J10">
-        <v>0.09344723026538837</v>
+        <v>0.1812205485903604</v>
       </c>
       <c r="K10">
-        <v>1.199693535263606</v>
+        <v>0.1117351084695919</v>
       </c>
       <c r="L10">
-        <v>0.2297883616663938</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3126484583823697</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.724545302557004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.663649222087912</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8424025857317901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.558731664247318</v>
+        <v>3.527025382316594</v>
       </c>
       <c r="C11">
-        <v>0.1606505955302353</v>
+        <v>0.9871455695011377</v>
       </c>
       <c r="D11">
-        <v>0.1626360844928882</v>
+        <v>0.1283607128611379</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.768682306027209</v>
+        <v>0.3447279766264302</v>
       </c>
       <c r="G11">
-        <v>0.4657970092310393</v>
+        <v>0.2039399597448508</v>
       </c>
       <c r="H11">
-        <v>0.3789147852278347</v>
+        <v>0.02143995689296574</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01727294732688112</v>
       </c>
       <c r="J11">
-        <v>0.09170892959360089</v>
+        <v>0.1573813884461543</v>
       </c>
       <c r="K11">
-        <v>1.283015461557909</v>
+        <v>0.08100102495564165</v>
       </c>
       <c r="L11">
-        <v>0.2419602744332678</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.334404124835963</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.728164979729058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.30890058444723</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7137602663214437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.598527526496582</v>
+        <v>4.091195410949013</v>
       </c>
       <c r="C12">
-        <v>0.1602251706790341</v>
+        <v>1.138278382574669</v>
       </c>
       <c r="D12">
-        <v>0.165728858097367</v>
+        <v>0.1410679118039724</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7722282059988075</v>
+        <v>0.3107291180757272</v>
       </c>
       <c r="G12">
-        <v>0.4674922604404088</v>
+        <v>0.171955909216841</v>
       </c>
       <c r="H12">
-        <v>0.3780945928062209</v>
+        <v>0.05861676948900651</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01810179623676866</v>
       </c>
       <c r="J12">
-        <v>0.09106913523815052</v>
+        <v>0.1384697377780242</v>
       </c>
       <c r="K12">
-        <v>1.314601579216202</v>
+        <v>0.06398167947440925</v>
       </c>
       <c r="L12">
-        <v>0.2465989082553506</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3426666583329521</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.730136598015434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.355623187641228</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6064580377798308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.589953050544665</v>
+        <v>4.552734179991944</v>
       </c>
       <c r="C13">
-        <v>0.1603161660844634</v>
+        <v>1.265752217378008</v>
       </c>
       <c r="D13">
-        <v>0.1650619276663576</v>
+        <v>0.149726633938613</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7714540207466953</v>
+        <v>0.272951806039778</v>
       </c>
       <c r="G13">
-        <v>0.4671188849434031</v>
+        <v>0.1401087722255667</v>
       </c>
       <c r="H13">
-        <v>0.3782665660442319</v>
+        <v>0.1135397015878539</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01810471605160391</v>
       </c>
       <c r="J13">
-        <v>0.09120609669484914</v>
+        <v>0.1211429467451168</v>
       </c>
       <c r="K13">
-        <v>1.307797290151541</v>
+        <v>0.05487493876667093</v>
       </c>
       <c r="L13">
-        <v>0.2455985523822761</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.340886053177428</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.729684716663627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6484824437165528</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5026790142482866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.562004034184355</v>
+        <v>4.83057452704054</v>
       </c>
       <c r="C14">
-        <v>0.1606153132112098</v>
+        <v>1.345953424167703</v>
       </c>
       <c r="D14">
-        <v>0.1628901493708099</v>
+        <v>0.1540327004529587</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7689693111073623</v>
+        <v>0.244825475487076</v>
       </c>
       <c r="G14">
-        <v>0.4659327667863806</v>
+        <v>0.1180428719736852</v>
       </c>
       <c r="H14">
-        <v>0.378845210178838</v>
+        <v>0.1625864377775059</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01781104838794256</v>
       </c>
       <c r="J14">
-        <v>0.091655920233217</v>
+        <v>0.1097580405198499</v>
       </c>
       <c r="K14">
-        <v>1.28561333875345</v>
+        <v>0.05256216060060237</v>
       </c>
       <c r="L14">
-        <v>0.242341295696491</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3350833877713626</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.728314951793578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2987728062792172</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4320338812592439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.544895140381698</v>
+        <v>4.869132174930712</v>
       </c>
       <c r="C15">
-        <v>0.1608003822635027</v>
+        <v>1.36000168375125</v>
       </c>
       <c r="D15">
-        <v>0.1615623284140355</v>
+        <v>0.1542319924882349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7674779162551317</v>
+        <v>0.2366198237360209</v>
       </c>
       <c r="G15">
-        <v>0.4652302706026603</v>
+        <v>0.1120591415593282</v>
       </c>
       <c r="H15">
-        <v>0.3792132383892692</v>
+        <v>0.1750291160346507</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01762096440902106</v>
       </c>
       <c r="J15">
-        <v>0.09193387040324019</v>
+        <v>0.1070257900404954</v>
       </c>
       <c r="K15">
-        <v>1.272029713233849</v>
+        <v>0.05291233161625253</v>
       </c>
       <c r="L15">
-        <v>0.2403500262104217</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3315323183883123</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.727555174878148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2315821941921392</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4136008724587441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.447005200061881</v>
+        <v>4.556813722175832</v>
       </c>
       <c r="C16">
-        <v>0.1618888371221914</v>
+        <v>1.282403579211518</v>
       </c>
       <c r="D16">
-        <v>0.153989808918169</v>
+        <v>0.1446680946294805</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7593902486348654</v>
+        <v>0.2265146948096159</v>
       </c>
       <c r="G16">
-        <v>0.4615647892821357</v>
+        <v>0.1075789009935662</v>
       </c>
       <c r="H16">
-        <v>0.3815270366296062</v>
+        <v>0.1620758953764465</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01565681855580348</v>
       </c>
       <c r="J16">
-        <v>0.0935633869026038</v>
+        <v>0.1084521974137118</v>
       </c>
       <c r="K16">
-        <v>1.194252509054962</v>
+        <v>0.05826926292026546</v>
       </c>
       <c r="L16">
-        <v>0.2289968915412146</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3112298925180923</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.724391048093452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2266350914110546</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4068931814225323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.387080343686335</v>
+        <v>4.169707303843495</v>
       </c>
       <c r="C17">
-        <v>0.1625812583026729</v>
+        <v>1.180258508812756</v>
       </c>
       <c r="D17">
-        <v>0.1493760295328173</v>
+        <v>0.1350806273992333</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7548281019345637</v>
+        <v>0.2336710887259557</v>
       </c>
       <c r="G17">
-        <v>0.459628906724987</v>
+        <v>0.1157298140850571</v>
       </c>
       <c r="H17">
-        <v>0.3831254277186389</v>
+        <v>0.124184636210984</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01437601357912932</v>
       </c>
       <c r="J17">
-        <v>0.0945953617498283</v>
+        <v>0.1155909931325709</v>
       </c>
       <c r="K17">
-        <v>1.146589612668635</v>
+        <v>0.06337800058212108</v>
       </c>
       <c r="L17">
-        <v>0.222082120491919</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.298814896459298</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.723485365230289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3819522523289081</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4389837986454381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.352656062987307</v>
+        <v>3.692428982512297</v>
       </c>
       <c r="C18">
-        <v>0.1629885142729037</v>
+        <v>1.047637057094988</v>
       </c>
       <c r="D18">
-        <v>0.1467335659769731</v>
+        <v>0.1243630399185207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7523469205519717</v>
+        <v>0.258036497769119</v>
       </c>
       <c r="G18">
-        <v>0.4586270172184328</v>
+        <v>0.1376148316029813</v>
       </c>
       <c r="H18">
-        <v>0.384109080704846</v>
+        <v>0.07139404588124165</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0133530113042406</v>
       </c>
       <c r="J18">
-        <v>0.09520063838673742</v>
+        <v>0.1293197311511278</v>
       </c>
       <c r="K18">
-        <v>1.11919111660697</v>
+        <v>0.07148395729528145</v>
       </c>
       <c r="L18">
-        <v>0.218122620494853</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2916878723683496</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.723334749032432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.817915932996172</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5140304234509472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.341007599858671</v>
+        <v>3.201579824221938</v>
       </c>
       <c r="C19">
-        <v>0.1631279414167466</v>
+        <v>0.9153144219924627</v>
       </c>
       <c r="D19">
-        <v>0.145840770504762</v>
+        <v>0.1143087648618888</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7515310046246455</v>
+        <v>0.2939985475446107</v>
       </c>
       <c r="G19">
-        <v>0.4583066463221428</v>
+        <v>0.1695078154119543</v>
       </c>
       <c r="H19">
-        <v>0.3844530366842704</v>
+        <v>0.02676937859057205</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01316430248789136</v>
       </c>
       <c r="J19">
-        <v>0.09540757085069629</v>
+        <v>0.1473633950744357</v>
       </c>
       <c r="K19">
-        <v>1.10991693905433</v>
+        <v>0.08487739109309356</v>
       </c>
       <c r="L19">
-        <v>0.2167849771941803</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2892770628846861</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.723346407448275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.644939768948078</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.619374281505003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.393454918815053</v>
+        <v>2.676474475723353</v>
       </c>
       <c r="C20">
-        <v>0.16250661631274</v>
+        <v>0.7710319200610343</v>
       </c>
       <c r="D20">
-        <v>0.1498660000542316</v>
+        <v>0.1053020604843198</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7552988792693967</v>
+        <v>0.3646774521763234</v>
       </c>
       <c r="G20">
-        <v>0.4598233621109529</v>
+        <v>0.2311247899003774</v>
       </c>
       <c r="H20">
-        <v>0.3829485889274196</v>
+        <v>0.004830745649628376</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01444256276095679</v>
       </c>
       <c r="J20">
-        <v>0.0944842904491896</v>
+        <v>0.1782787360374343</v>
       </c>
       <c r="K20">
-        <v>1.151661698341002</v>
+        <v>0.1123280777666302</v>
       </c>
       <c r="L20">
-        <v>0.222816363287734</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3001350505424085</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.723543224911907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.545975772796055</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8148116788832738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.570211087637261</v>
+        <v>2.946426344769918</v>
       </c>
       <c r="C21">
-        <v>0.1605270640271712</v>
+        <v>0.8330122075234669</v>
       </c>
       <c r="D21">
-        <v>0.1635275391591478</v>
+        <v>0.1168880341630683</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.769692738489951</v>
+        <v>0.4060231950936242</v>
       </c>
       <c r="G21">
-        <v>0.4662761296890778</v>
+        <v>0.2595443865764295</v>
       </c>
       <c r="H21">
-        <v>0.3786724072016341</v>
+        <v>0.008386570969175999</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0180447889923343</v>
       </c>
       <c r="J21">
-        <v>0.09152329080661303</v>
+        <v>0.1864444367878448</v>
       </c>
       <c r="K21">
-        <v>1.292128310212888</v>
+        <v>0.1101781204238161</v>
       </c>
       <c r="L21">
-        <v>0.2432972153406752</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3367870926336352</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.7287007106207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.179722396656544</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8924919874893362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.686199015936438</v>
+        <v>3.150870993184924</v>
       </c>
       <c r="C22">
-        <v>0.1593151269204967</v>
+        <v>0.8775328624344922</v>
       </c>
       <c r="D22">
-        <v>0.172564990949212</v>
+        <v>0.1247918639421215</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7804571300959537</v>
+        <v>0.4321329305290362</v>
       </c>
       <c r="G22">
-        <v>0.4715599919906879</v>
+        <v>0.2772154335839332</v>
       </c>
       <c r="H22">
-        <v>0.3764820328022154</v>
+        <v>0.01085659204073369</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02032948370542531</v>
       </c>
       <c r="J22">
-        <v>0.08969598185620598</v>
+        <v>0.1913306795294432</v>
       </c>
       <c r="K22">
-        <v>1.384133515472627</v>
+        <v>0.1082481316735731</v>
       </c>
       <c r="L22">
-        <v>0.2568550684029987</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.36088345420427</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.735590392925758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.493427870776799</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9403978358571692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.624246989311018</v>
+        <v>3.041915223795286</v>
       </c>
       <c r="C23">
-        <v>0.1599543879012657</v>
+        <v>0.8502623738921784</v>
       </c>
       <c r="D23">
-        <v>0.1677311433794841</v>
+        <v>0.120293449701947</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7745835175994316</v>
+        <v>0.4195424822979206</v>
       </c>
       <c r="G23">
-        <v>0.468638635744</v>
+        <v>0.2690475768925467</v>
       </c>
       <c r="H23">
-        <v>0.3775941826090161</v>
+        <v>0.009503604975057978</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01885038574797271</v>
       </c>
       <c r="J23">
-        <v>0.09066120102007424</v>
+        <v>0.1893750531034186</v>
       </c>
       <c r="K23">
-        <v>1.335007070398717</v>
+        <v>0.1100238873280972</v>
       </c>
       <c r="L23">
-        <v>0.2496024621047468</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3480087774713425</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.731580137681789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.325811593323195</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9188744216874909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.390572889236097</v>
+        <v>2.628195824281136</v>
       </c>
       <c r="C24">
-        <v>0.1625403334006492</v>
+        <v>0.7529480658474199</v>
       </c>
       <c r="D24">
-        <v>0.1496444531410788</v>
+        <v>0.1037521695292014</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7550856005295259</v>
+        <v>0.3709552797598121</v>
       </c>
       <c r="G24">
-        <v>0.4597351036493578</v>
+        <v>0.2371531207306106</v>
       </c>
       <c r="H24">
-        <v>0.3830283365119058</v>
+        <v>0.005142323644124591</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01402884037861263</v>
       </c>
       <c r="J24">
-        <v>0.09453446850644198</v>
+        <v>0.1815551236283213</v>
       </c>
       <c r="K24">
-        <v>1.149368598039416</v>
+        <v>0.1162692804087229</v>
       </c>
       <c r="L24">
-        <v>0.2224843627748214</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2995381763190892</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.723515916258918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.695493640415961</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8344452881468811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140114135238406</v>
+        <v>2.179966380865437</v>
       </c>
       <c r="C25">
-        <v>0.1656726538772659</v>
+        <v>0.6482962273728674</v>
       </c>
       <c r="D25">
-        <v>0.1305610396830161</v>
+        <v>0.08596945250686616</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7394711676457462</v>
+        <v>0.3212145024809772</v>
       </c>
       <c r="G25">
-        <v>0.4543594690238635</v>
+        <v>0.2050141984210327</v>
       </c>
       <c r="H25">
-        <v>0.3913319860304441</v>
+        <v>0.001855220045021477</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009596581009305716</v>
       </c>
       <c r="J25">
-        <v>0.09915833808775965</v>
+        <v>0.1744986062839544</v>
       </c>
       <c r="K25">
-        <v>0.9497060575903049</v>
+        <v>0.1245682527374576</v>
       </c>
       <c r="L25">
-        <v>0.19390183797411</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2477704442793645</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.728861017660776</v>
+        <v>3.023204908324843</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7510351018703147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.848398956735707</v>
+        <v>1.845315752070377</v>
       </c>
       <c r="C2">
-        <v>0.56314664708853</v>
+        <v>0.5766603465509093</v>
       </c>
       <c r="D2">
-        <v>0.0722448931274684</v>
+        <v>0.07430403417082232</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2899546843195537</v>
+        <v>0.282991870780009</v>
       </c>
       <c r="G2">
-        <v>0.186190050360068</v>
+        <v>0.1660327863262268</v>
       </c>
       <c r="H2">
-        <v>0.0004502859868789066</v>
+        <v>0.0004381677115672389</v>
       </c>
       <c r="I2">
-        <v>0.006333851200350793</v>
+        <v>0.006075919093013304</v>
       </c>
       <c r="J2">
-        <v>0.1720338718281482</v>
+        <v>0.2129058037865619</v>
       </c>
       <c r="K2">
-        <v>0.1338406145384887</v>
+        <v>0.1300783391428659</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09723337247683439</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01810274728775596</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.532734286566196</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7055761225239507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.53194187779583</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.687669106224007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.622303599783805</v>
+        <v>1.621019022933268</v>
       </c>
       <c r="C3">
-        <v>0.510277635952832</v>
+        <v>0.5156080183463416</v>
       </c>
       <c r="D3">
-        <v>0.06333574968110156</v>
+        <v>0.06475121846897025</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.26783394768497</v>
+        <v>0.263454294475558</v>
       </c>
       <c r="G3">
-        <v>0.172446110636983</v>
+        <v>0.1539303464610953</v>
       </c>
       <c r="H3">
-        <v>3.436688301139412E-05</v>
+        <v>3.293325413489256E-05</v>
       </c>
       <c r="I3">
-        <v>0.004684840760269093</v>
+        <v>0.004635611572776366</v>
       </c>
       <c r="J3">
-        <v>0.1699821188802559</v>
+        <v>0.2109402505293687</v>
       </c>
       <c r="K3">
-        <v>0.1396669796029322</v>
+        <v>0.1365253773200035</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1024833215226568</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01873671962352352</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.202110022056416</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6718627133943897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.201797759132802</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6610468432542262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.482865400741304</v>
+        <v>1.48265271185241</v>
       </c>
       <c r="C4">
-        <v>0.4779612770755932</v>
+        <v>0.4784507349839089</v>
       </c>
       <c r="D4">
-        <v>0.05787809178493575</v>
+        <v>0.05891186456714337</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.254653503008349</v>
+        <v>0.251757347176806</v>
       </c>
       <c r="G4">
-        <v>0.1643318123120707</v>
+        <v>0.1467953647923181</v>
       </c>
       <c r="H4">
-        <v>1.475985775867272E-05</v>
+        <v>1.492073367304059E-05</v>
       </c>
       <c r="I4">
-        <v>0.003798510535816479</v>
+        <v>0.003858336538156149</v>
       </c>
       <c r="J4">
-        <v>0.1689615741181072</v>
+        <v>0.2098273918312401</v>
       </c>
       <c r="K4">
-        <v>0.1435159175785614</v>
+        <v>0.1406956902068295</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1059332317147295</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0195651049364054</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.999712428680525</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6523440232339652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.99966263649921</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6455669319988431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.42585394711935</v>
+        <v>1.426071851054985</v>
       </c>
       <c r="C5">
-        <v>0.4656624264650588</v>
+        <v>0.4642219885308805</v>
       </c>
       <c r="D5">
-        <v>0.0557242807097893</v>
+        <v>0.05660464101158169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2490201699504695</v>
+        <v>0.2467154277394883</v>
       </c>
       <c r="G5">
-        <v>0.1607662676486825</v>
+        <v>0.1436380095668781</v>
       </c>
       <c r="H5">
-        <v>6.194390602631827E-05</v>
+        <v>6.160469586458106E-05</v>
       </c>
       <c r="I5">
-        <v>0.003520994750453088</v>
+        <v>0.003633813271275876</v>
       </c>
       <c r="J5">
-        <v>0.1684261246569108</v>
+        <v>0.2092179715696787</v>
       </c>
       <c r="K5">
-        <v>0.1449386077452921</v>
+        <v>0.1422478035521699</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1072702836399415</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01998553590031715</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.917339128445136</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6435886802890991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.917389326157448</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.638420041054772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.416335616683682</v>
+        <v>1.416625195165295</v>
       </c>
       <c r="C6">
-        <v>0.4646497066696611</v>
+        <v>0.4628879062755118</v>
       </c>
       <c r="D6">
-        <v>0.05544960995550952</v>
+        <v>0.05630316577470751</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2476542629888527</v>
+        <v>0.2454607481790489</v>
       </c>
       <c r="G6">
-        <v>0.159769738024238</v>
+        <v>0.1427293983657876</v>
       </c>
       <c r="H6">
-        <v>7.306665446327187E-05</v>
+        <v>7.257642268232445E-05</v>
       </c>
       <c r="I6">
-        <v>0.003550438706792391</v>
+        <v>0.003689138059400854</v>
       </c>
       <c r="J6">
-        <v>0.1681241130828397</v>
+        <v>0.2089000756123767</v>
       </c>
       <c r="K6">
-        <v>0.1449215484332615</v>
+        <v>0.14226740654202</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1073432901381377</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02002970796953019</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.903657144076647</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6408308261608795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.90372367963613</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6359729962767773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.481982709078352</v>
+        <v>1.481727296541635</v>
       </c>
       <c r="C7">
-        <v>0.4806098721740852</v>
+        <v>0.4806588326023586</v>
       </c>
       <c r="D7">
-        <v>0.05807578854344797</v>
+        <v>0.05924111696415224</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2533854044469308</v>
+        <v>0.2498555443994519</v>
       </c>
       <c r="G7">
-        <v>0.1631656037621312</v>
+        <v>0.1477756134549395</v>
       </c>
       <c r="H7">
-        <v>1.526568824372632E-05</v>
+        <v>1.546238732030858E-05</v>
       </c>
       <c r="I7">
-        <v>0.003982053238839711</v>
+        <v>0.00408304395580128</v>
       </c>
       <c r="J7">
-        <v>0.1683632819931518</v>
+        <v>0.2059927160090993</v>
       </c>
       <c r="K7">
-        <v>0.1428337108178095</v>
+        <v>0.1398501771675971</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.105420577671941</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01943631357211029</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.998574321159907</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6486173321926856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.998514515895408</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.6399631754405846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.770421908336658</v>
+        <v>1.767808556180285</v>
       </c>
       <c r="C8">
-        <v>0.5486529245407326</v>
+        <v>0.5579544340508562</v>
       </c>
       <c r="D8">
-        <v>0.06947281597859956</v>
+        <v>0.07176691248658784</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2806610733671278</v>
+        <v>0.2724070311344278</v>
       </c>
       <c r="G8">
-        <v>0.1798992618039748</v>
+        <v>0.1673839465994504</v>
       </c>
       <c r="H8">
-        <v>0.0002549410452381551</v>
+        <v>0.0002471317262551231</v>
       </c>
       <c r="I8">
-        <v>0.005961321752703697</v>
+        <v>0.005819440636316564</v>
       </c>
       <c r="J8">
-        <v>0.1704965779075209</v>
+        <v>0.2009550153730117</v>
       </c>
       <c r="K8">
-        <v>0.1348737689662389</v>
+        <v>0.1307378105183101</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09817958079734623</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01788002334491345</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.418547763914347</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6889251859901009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.417888024277417</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6670143270426507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.331422011845461</v>
+        <v>2.324029172469523</v>
       </c>
       <c r="C9">
-        <v>0.6783042081038104</v>
+        <v>0.7086601364385672</v>
       </c>
       <c r="D9">
-        <v>0.09153711660472652</v>
+        <v>0.09565623796677869</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3397875601309153</v>
+        <v>0.3237993656026248</v>
       </c>
       <c r="G9">
-        <v>0.2175733675441194</v>
+        <v>0.2027184234011727</v>
       </c>
       <c r="H9">
-        <v>0.002793544691612082</v>
+        <v>0.002725371999419801</v>
       </c>
       <c r="I9">
-        <v>0.01067603702362341</v>
+        <v>0.009827067196846784</v>
       </c>
       <c r="J9">
-        <v>0.1777517210714521</v>
+        <v>0.2042510220844278</v>
       </c>
       <c r="K9">
-        <v>0.122793567785628</v>
+        <v>0.1165503930871399</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08684590218796551</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0187706216650092</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.248895018409712</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7846445018053316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.246790399581641</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7411728520821299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.796636459897002</v>
+        <v>2.785147949426403</v>
       </c>
       <c r="C10">
-        <v>0.7908699715999603</v>
+        <v>0.834097091079002</v>
       </c>
       <c r="D10">
-        <v>0.1091606818457649</v>
+        <v>0.1154295783525185</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3791660382359012</v>
+        <v>0.3538455845823307</v>
       </c>
       <c r="G10">
-        <v>0.2411790213353981</v>
+        <v>0.2379244398925167</v>
       </c>
       <c r="H10">
-        <v>0.005734506410938867</v>
+        <v>0.005593041144576816</v>
       </c>
       <c r="I10">
-        <v>0.01503041721388421</v>
+        <v>0.01352063858376518</v>
       </c>
       <c r="J10">
-        <v>0.1812205485903604</v>
+        <v>0.1876307542095148</v>
       </c>
       <c r="K10">
-        <v>0.1117351084695919</v>
+        <v>0.1033743175829294</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.078253173162806</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02001472650691483</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.663649222087912</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8424025857317901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.660300892332529</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7726200567848309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.527025382316594</v>
+        <v>3.512820870264079</v>
       </c>
       <c r="C11">
-        <v>0.9871455695011377</v>
+        <v>1.020526013358761</v>
       </c>
       <c r="D11">
-        <v>0.1283607128611379</v>
+        <v>0.1362527793267958</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3447279766264302</v>
+        <v>0.3162607274715299</v>
       </c>
       <c r="G11">
-        <v>0.2039399597448508</v>
+        <v>0.2322273063191318</v>
       </c>
       <c r="H11">
-        <v>0.02143995689296574</v>
+        <v>0.02132838248478564</v>
       </c>
       <c r="I11">
-        <v>0.01727294732688112</v>
+        <v>0.01549325861233086</v>
       </c>
       <c r="J11">
-        <v>0.1573813884461543</v>
+        <v>0.1396703689560468</v>
       </c>
       <c r="K11">
-        <v>0.08100102495564165</v>
+        <v>0.07701375550711909</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06830446609851393</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01169711918048133</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.30890058444723</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7137602663214437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.306269539256505</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6384954609127789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.091195410949013</v>
+        <v>4.075518044875196</v>
       </c>
       <c r="C12">
-        <v>1.138278382574669</v>
+        <v>1.158916651835824</v>
       </c>
       <c r="D12">
-        <v>0.1410679118039724</v>
+        <v>0.1493246430692352</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3107291180757272</v>
+        <v>0.2839027994370014</v>
       </c>
       <c r="G12">
-        <v>0.171955909216841</v>
+        <v>0.2143754091052443</v>
       </c>
       <c r="H12">
-        <v>0.05861676948900651</v>
+        <v>0.05853942114662658</v>
       </c>
       <c r="I12">
-        <v>0.01810179623676866</v>
+        <v>0.01614430203146</v>
       </c>
       <c r="J12">
-        <v>0.1384697377780242</v>
+        <v>0.1178679523166402</v>
       </c>
       <c r="K12">
-        <v>0.06398167947440925</v>
+        <v>0.06402764032129449</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06434714248493478</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.006625950942873438</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.355623187641228</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6064580377798308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.353811902148337</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.538763950983892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.552734179991944</v>
+        <v>4.536723231794383</v>
       </c>
       <c r="C13">
-        <v>1.265752217378008</v>
+        <v>1.272574469597259</v>
       </c>
       <c r="D13">
-        <v>0.149726633938613</v>
+        <v>0.1568283771181029</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.272951806039778</v>
+        <v>0.2526972937563201</v>
       </c>
       <c r="G13">
-        <v>0.1401087722255667</v>
+        <v>0.180082524395992</v>
       </c>
       <c r="H13">
-        <v>0.1135397015878539</v>
+        <v>0.1134965040550782</v>
       </c>
       <c r="I13">
-        <v>0.01810471605160391</v>
+        <v>0.01613950018597432</v>
       </c>
       <c r="J13">
-        <v>0.1211429467451168</v>
+        <v>0.1109700989541089</v>
       </c>
       <c r="K13">
-        <v>0.05487493876667093</v>
+        <v>0.05837118963676324</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06314381043959072</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.003553183836037643</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6484824437165528</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5026790142482866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6474708884109504</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4552301731642956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.83057452704054</v>
+        <v>4.814870406765749</v>
       </c>
       <c r="C14">
-        <v>1.345953424167703</v>
+        <v>1.342499470247049</v>
       </c>
       <c r="D14">
-        <v>0.1540327004529587</v>
+        <v>0.1595973408715849</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.244825475487076</v>
+        <v>0.2309604204901561</v>
       </c>
       <c r="G14">
-        <v>0.1180428719736852</v>
+        <v>0.150253090409727</v>
       </c>
       <c r="H14">
-        <v>0.1625864377775059</v>
+        <v>0.1625634625468422</v>
       </c>
       <c r="I14">
-        <v>0.01781104838794256</v>
+        <v>0.01593069006190362</v>
       </c>
       <c r="J14">
-        <v>0.1097580405198499</v>
+        <v>0.110913246690501</v>
       </c>
       <c r="K14">
-        <v>0.05256216060060237</v>
+        <v>0.05761830152961123</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06325374769688441</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.002529975094732406</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2987728062792172</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4320338812592439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2982390735277249</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4027081168257496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.869132174930712</v>
+        <v>4.853784791714531</v>
       </c>
       <c r="C15">
-        <v>1.36000168375125</v>
+        <v>1.354149154105926</v>
       </c>
       <c r="D15">
-        <v>0.1542319924882349</v>
+        <v>0.1591236513406074</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2366198237360209</v>
+        <v>0.2251536864067987</v>
       </c>
       <c r="G15">
-        <v>0.1120591415593282</v>
+        <v>0.1400282062177496</v>
       </c>
       <c r="H15">
-        <v>0.1750291160346507</v>
+        <v>0.1750118480227343</v>
       </c>
       <c r="I15">
-        <v>0.01762096440902106</v>
+        <v>0.01582601421194596</v>
       </c>
       <c r="J15">
-        <v>0.1070257900404954</v>
+        <v>0.112890140802012</v>
       </c>
       <c r="K15">
-        <v>0.05291233161625253</v>
+        <v>0.05816839478407898</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0634503345906241</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.002492700362752842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2315821941921392</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4136008724587441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2311558994539915</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3907074045500423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.556813722175832</v>
+        <v>4.544104490763516</v>
       </c>
       <c r="C16">
-        <v>1.282403579211518</v>
+        <v>1.27875601698355</v>
       </c>
       <c r="D16">
-        <v>0.1446680946294805</v>
+        <v>0.147216606822866</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2265146948096159</v>
+        <v>0.2223876710390655</v>
       </c>
       <c r="G16">
-        <v>0.1075789009935662</v>
+        <v>0.1163340150933934</v>
       </c>
       <c r="H16">
-        <v>0.1620758953764465</v>
+        <v>0.1620736739430413</v>
       </c>
       <c r="I16">
-        <v>0.01565681855580348</v>
+        <v>0.01428504165052225</v>
       </c>
       <c r="J16">
-        <v>0.1084521974137118</v>
+        <v>0.1335969206609668</v>
       </c>
       <c r="K16">
-        <v>0.05826926292026546</v>
+        <v>0.06297280170850428</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06457262783444184</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.003428502401060897</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2266350914110546</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4068931814225323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2262547447570142</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4024751340627404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.169707303843495</v>
+        <v>4.15868636819107</v>
       </c>
       <c r="C17">
-        <v>1.180258508812756</v>
+        <v>1.182868237226444</v>
       </c>
       <c r="D17">
-        <v>0.1350806273992333</v>
+        <v>0.1370118539563805</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2336710887259557</v>
+        <v>0.2312514048776464</v>
       </c>
       <c r="G17">
-        <v>0.1157298140850571</v>
+        <v>0.1154968060900359</v>
       </c>
       <c r="H17">
-        <v>0.124184636210984</v>
+        <v>0.1241842409313136</v>
       </c>
       <c r="I17">
-        <v>0.01437601357912932</v>
+        <v>0.01326325162287656</v>
       </c>
       <c r="J17">
-        <v>0.1155909931325709</v>
+        <v>0.1496634018495655</v>
       </c>
       <c r="K17">
-        <v>0.06337800058212108</v>
+        <v>0.06747782804532143</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06598620119086629</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.004490570140971317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3819522523289081</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4389837986454381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3814296063580329</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4384737273094288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.692428982512297</v>
+        <v>3.682522939302771</v>
       </c>
       <c r="C18">
-        <v>1.047637057094988</v>
+        <v>1.060832606556176</v>
       </c>
       <c r="D18">
-        <v>0.1243630399185207</v>
+        <v>0.1266385224911346</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.258036497769119</v>
+        <v>0.2538051283715106</v>
       </c>
       <c r="G18">
-        <v>0.1376148316029813</v>
+        <v>0.1311539996178794</v>
       </c>
       <c r="H18">
-        <v>0.07139404588124165</v>
+        <v>0.07138314249435496</v>
       </c>
       <c r="I18">
-        <v>0.0133530113042406</v>
+        <v>0.01234286096425663</v>
       </c>
       <c r="J18">
-        <v>0.1293197311511278</v>
+        <v>0.1664290316985912</v>
       </c>
       <c r="K18">
-        <v>0.07148395729528145</v>
+        <v>0.07435320912326215</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06864271357709184</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.00646158046863432</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.817915932996172</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5140304234509472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8170547902219951</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5078984247743534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.201579824221938</v>
+        <v>3.192219626697238</v>
       </c>
       <c r="C19">
-        <v>0.9153144219924627</v>
+        <v>0.9404769681449636</v>
       </c>
       <c r="D19">
-        <v>0.1143087648618888</v>
+        <v>0.1174236968338391</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2939985475446107</v>
+        <v>0.2854641675887635</v>
       </c>
       <c r="G19">
-        <v>0.1695078154119543</v>
+        <v>0.1576122417903605</v>
       </c>
       <c r="H19">
-        <v>0.02676937859057205</v>
+        <v>0.02673315437940005</v>
       </c>
       <c r="I19">
-        <v>0.01316430248789136</v>
+        <v>0.01222894455389678</v>
       </c>
       <c r="J19">
-        <v>0.1473633950744357</v>
+        <v>0.1836536954655088</v>
       </c>
       <c r="K19">
-        <v>0.08487739109309356</v>
+        <v>0.08519848842768774</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07292084657553977</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0101271393832274</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.644939768948078</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.619374281505003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.643514304556518</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6002269380763323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.676474475723353</v>
+        <v>2.666272125409591</v>
       </c>
       <c r="C20">
-        <v>0.7710319200610343</v>
+        <v>0.8125101452663728</v>
       </c>
       <c r="D20">
-        <v>0.1053020604843198</v>
+        <v>0.1104696513716874</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3646774521763234</v>
+        <v>0.344535215886161</v>
       </c>
       <c r="G20">
-        <v>0.2311247899003774</v>
+        <v>0.2172523552633621</v>
       </c>
       <c r="H20">
-        <v>0.004830745649628376</v>
+        <v>0.004713303013054837</v>
       </c>
       <c r="I20">
-        <v>0.01444256276095679</v>
+        <v>0.01330628304877468</v>
       </c>
       <c r="J20">
-        <v>0.1782787360374343</v>
+        <v>0.2005393849845447</v>
       </c>
       <c r="K20">
-        <v>0.1123280777666302</v>
+        <v>0.1055331113718925</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07993838027742939</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01910621171916382</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.545975772796055</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8148116788832738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.543025072999214</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7600995952681728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.946426344769918</v>
+        <v>2.932140564131998</v>
       </c>
       <c r="C21">
-        <v>0.8330122075234669</v>
+        <v>0.8781146953747054</v>
       </c>
       <c r="D21">
-        <v>0.1168880341630683</v>
+        <v>0.1267138832631503</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4060231950936242</v>
+        <v>0.3642221238256695</v>
       </c>
       <c r="G21">
-        <v>0.2595443865764295</v>
+        <v>0.2969173135399643</v>
       </c>
       <c r="H21">
-        <v>0.008386570969175999</v>
+        <v>0.008173006332187871</v>
       </c>
       <c r="I21">
-        <v>0.0180447889923343</v>
+        <v>0.0161794789522709</v>
       </c>
       <c r="J21">
-        <v>0.1864444367878448</v>
+        <v>0.14564347255412</v>
       </c>
       <c r="K21">
-        <v>0.1101781204238161</v>
+        <v>0.09697897728518257</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07437247120746449</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02093887847830445</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.179722396656544</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8924919874893362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.175191804596395</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7747613491012686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.150870993184924</v>
+        <v>3.13380511572359</v>
       </c>
       <c r="C22">
-        <v>0.8775328624344922</v>
+        <v>0.9238358467192427</v>
       </c>
       <c r="D22">
-        <v>0.1247918639421215</v>
+        <v>0.137937142770781</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4321329305290362</v>
+        <v>0.375219495098456</v>
       </c>
       <c r="G22">
-        <v>0.2772154335839332</v>
+        <v>0.355847409592684</v>
       </c>
       <c r="H22">
-        <v>0.01085659204073369</v>
+        <v>0.0105722269824349</v>
       </c>
       <c r="I22">
-        <v>0.02032948370542531</v>
+        <v>0.01787404049937802</v>
       </c>
       <c r="J22">
-        <v>0.1913306795294432</v>
+        <v>0.1166081664135419</v>
       </c>
       <c r="K22">
-        <v>0.1082481316735731</v>
+        <v>0.0908214795042408</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07081567954007006</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02207306349316163</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.493427870776799</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9403978358571692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.487842843105511</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7789676390243869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.041915223795286</v>
+        <v>3.026435573012577</v>
       </c>
       <c r="C23">
-        <v>0.8502623738921784</v>
+        <v>0.8969805100990982</v>
       </c>
       <c r="D23">
-        <v>0.120293449701947</v>
+        <v>0.1312513232305577</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4195424822979206</v>
+        <v>0.372397670611754</v>
       </c>
       <c r="G23">
-        <v>0.2690475768925467</v>
+        <v>0.3188136186774528</v>
       </c>
       <c r="H23">
-        <v>0.009503604975057978</v>
+        <v>0.009259730342459194</v>
       </c>
       <c r="I23">
-        <v>0.01885038574797271</v>
+        <v>0.01666425879449829</v>
       </c>
       <c r="J23">
-        <v>0.1893750531034186</v>
+        <v>0.1362614994089739</v>
       </c>
       <c r="K23">
-        <v>0.1100238873280972</v>
+        <v>0.09514811605606432</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07299996667310893</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02194058037197522</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.325811593323195</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9188744216874909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.320830396272896</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7855774643936684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.628195824281136</v>
+        <v>2.618047217145261</v>
       </c>
       <c r="C24">
-        <v>0.7529480658474199</v>
+        <v>0.7950066576747759</v>
       </c>
       <c r="D24">
-        <v>0.1037521695292014</v>
+        <v>0.1089604835462552</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3709552797598121</v>
+        <v>0.3502333424495774</v>
       </c>
       <c r="G24">
-        <v>0.2371531207306106</v>
+        <v>0.2221757256489312</v>
       </c>
       <c r="H24">
-        <v>0.005142323644124591</v>
+        <v>0.005019540299425973</v>
       </c>
       <c r="I24">
-        <v>0.01402884037861263</v>
+        <v>0.01279310544513823</v>
       </c>
       <c r="J24">
-        <v>0.1815551236283213</v>
+        <v>0.203946409156579</v>
       </c>
       <c r="K24">
-        <v>0.1162692804087229</v>
+        <v>0.108758746819662</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08116288002951411</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02029883738210714</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.695493640415961</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8344452881468811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.692443225358303</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7777216955556412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.179966380865437</v>
+        <v>2.173987251365531</v>
       </c>
       <c r="C25">
-        <v>0.6482962273728674</v>
+        <v>0.6734844168610152</v>
       </c>
       <c r="D25">
-        <v>0.08596945250686616</v>
+        <v>0.08937795526222914</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3212145024809772</v>
+        <v>0.308498982230013</v>
       </c>
       <c r="G25">
-        <v>0.2050141984210327</v>
+        <v>0.1878888490299104</v>
       </c>
       <c r="H25">
-        <v>0.001855220045021477</v>
+        <v>0.001809437268553094</v>
       </c>
       <c r="I25">
-        <v>0.009596581009305716</v>
+        <v>0.009055713359360062</v>
       </c>
       <c r="J25">
-        <v>0.1744986062839544</v>
+        <v>0.2066691067584259</v>
       </c>
       <c r="K25">
-        <v>0.1245682527374576</v>
+        <v>0.1193868770312765</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08936706378090165</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01788399215379322</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.023204908324843</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7510351018703147</v>
+        <v>3.021552044455206</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7169694167837264</v>
       </c>
     </row>
   </sheetData>
